--- a/testcase.xlsx
+++ b/testcase.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6c0e78641f3fe9d/デスクトップ/Design documents/Design-document/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{E3B9C89B-AC7D-4FED-B315-20D4F09CF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC4415E1-DF4B-4153-886B-71F41C7E7B7D}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{E3B9C89B-AC7D-4FED-B315-20D4F09CF018}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1CD62AD9-77CE-4171-A2DF-870E97BAC68E}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="888" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="283">
   <si>
     <t>作成者</t>
   </si>
@@ -2642,22 +2642,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>設定削除画面下にある「登録する」ボタンを押下。</t>
-    <rPh sb="2" eb="4">
-      <t>サクジョ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>ガメンシタ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>オウカ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>アカウントが管理者権限でログインされた状態のトップページでヘッダーのところに「設定」と書かれたリンクをクリック。</t>
     <rPh sb="6" eb="9">
       <t>カンリシャ</t>
@@ -3547,6 +3531,150 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面</t>
+    <rPh sb="5" eb="9">
+      <t>サクジョカクニン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除画面下にある「確認する」ボタンを押下。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>シタ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除完了画面</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウント削除確認画面下にある「登録する」ボタンを押下。</t>
+    <rPh sb="5" eb="7">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>設定削除確認画面下にある「登録する」ボタンを押下。</t>
+    <rPh sb="2" eb="4">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="6" eb="9">
+      <t>ガメンシタ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>オウカ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウト画面</t>
+    <rPh sb="5" eb="7">
+      <t>ガメン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>アカウントがログインされている状態で、ヘッダーの右側にある「ログアウト」と書かれているリンクをクリック。</t>
+    <rPh sb="15" eb="17">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>ミギガワ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログインページに戻るボタン</t>
+    <rPh sb="8" eb="9">
+      <t>モド</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ログアウトされた旨表示。</t>
+    <rPh sb="8" eb="9">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「ログインページに戻る」と書かれたボタンが表示される。</t>
+    <rPh sb="9" eb="10">
+      <t>モド</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ヒョウジ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -4149,23 +4277,32 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4176,22 +4313,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4576,8 +4704,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M228"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A178" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B196" sqref="B196"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75:C80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7" defaultRowHeight="11.25" customHeight="1"/>
@@ -4727,12 +4855,12 @@
       <c r="A6" s="12">
         <v>2</v>
       </c>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
+      <c r="B6" s="89"/>
+      <c r="C6" s="89"/>
       <c r="D6" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="95"/>
+      <c r="E6" s="86"/>
       <c r="F6" s="103" t="s">
         <v>37</v>
       </c>
@@ -4749,12 +4877,12 @@
       <c r="A7" s="12">
         <v>3</v>
       </c>
-      <c r="B7" s="93"/>
-      <c r="C7" s="93"/>
+      <c r="B7" s="90"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="96"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="104"/>
       <c r="G7" s="28" t="s">
         <v>33</v>
@@ -4766,22 +4894,22 @@
       <c r="L7" s="22"/>
     </row>
     <row r="8" spans="1:12" ht="45" customHeight="1">
-      <c r="A8" s="83">
+      <c r="A8" s="82">
         <v>4</v>
       </c>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="91" t="s">
+      <c r="C8" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="91" t="s">
+      <c r="F8" s="88" t="s">
         <v>41</v>
       </c>
       <c r="G8" s="28" t="s">
@@ -4797,13 +4925,13 @@
       <c r="A9" s="12">
         <v>5</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E9" s="95"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="86"/>
+      <c r="F9" s="89"/>
       <c r="G9" s="28" t="s">
         <v>42</v>
       </c>
@@ -4817,13 +4945,13 @@
       <c r="A10" s="12">
         <v>6</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="92"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="95"/>
-      <c r="F10" s="93"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="90"/>
       <c r="G10" s="28" t="s">
         <v>43</v>
       </c>
@@ -4834,22 +4962,22 @@
       <c r="L10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="45">
-      <c r="A11" s="83">
+      <c r="A11" s="84">
         <v>7</v>
       </c>
-      <c r="B11" s="91" t="s">
+      <c r="B11" s="88" t="s">
         <v>44</v>
       </c>
-      <c r="C11" s="91" t="s">
+      <c r="C11" s="88" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="94" t="s">
+      <c r="E11" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="91" t="s">
+      <c r="F11" s="88" t="s">
         <v>45</v>
       </c>
       <c r="G11" s="28" t="s">
@@ -4865,13 +4993,13 @@
       <c r="A12" s="12">
         <v>8</v>
       </c>
-      <c r="B12" s="92"/>
-      <c r="C12" s="92"/>
+      <c r="B12" s="89"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="95"/>
-      <c r="F12" s="92"/>
+      <c r="E12" s="86"/>
+      <c r="F12" s="89"/>
       <c r="G12" s="28" t="s">
         <v>46</v>
       </c>
@@ -4882,16 +5010,16 @@
       <c r="L12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="82">
+      <c r="A13" s="12">
         <v>9</v>
       </c>
-      <c r="B13" s="93"/>
-      <c r="C13" s="93"/>
+      <c r="B13" s="90"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="96"/>
-      <c r="F13" s="93"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="28" t="s">
         <v>48</v>
       </c>
@@ -4902,22 +5030,22 @@
       <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12" ht="30" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="84">
         <v>10</v>
       </c>
-      <c r="B14" s="91" t="s">
+      <c r="B14" s="88" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="91" t="s">
+      <c r="C14" s="88" t="s">
         <v>50</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="94" t="s">
+      <c r="E14" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="91" t="s">
+      <c r="F14" s="88" t="s">
         <v>54</v>
       </c>
       <c r="G14" s="28" t="s">
@@ -4933,13 +5061,13 @@
       <c r="A15" s="12">
         <v>11</v>
       </c>
-      <c r="B15" s="92"/>
-      <c r="C15" s="92"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E15" s="95"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="28" t="s">
         <v>55</v>
       </c>
@@ -4953,13 +5081,13 @@
       <c r="A16" s="12">
         <v>12</v>
       </c>
-      <c r="B16" s="92"/>
-      <c r="C16" s="92"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="95"/>
-      <c r="F16" s="92"/>
+      <c r="E16" s="86"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="28" t="s">
         <v>56</v>
       </c>
@@ -4970,16 +5098,16 @@
       <c r="L16" s="11"/>
     </row>
     <row r="17" spans="1:12" ht="15">
-      <c r="A17" s="83">
+      <c r="A17" s="84">
         <v>13</v>
       </c>
-      <c r="B17" s="93"/>
-      <c r="C17" s="93"/>
+      <c r="B17" s="90"/>
+      <c r="C17" s="90"/>
       <c r="D17" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="E17" s="96"/>
-      <c r="F17" s="93"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="90"/>
       <c r="G17" s="28" t="s">
         <v>58</v>
       </c>
@@ -4993,19 +5121,19 @@
       <c r="A18" s="12">
         <v>14</v>
       </c>
-      <c r="B18" s="91" t="s">
+      <c r="B18" s="88" t="s">
         <v>59</v>
       </c>
-      <c r="C18" s="91" t="s">
+      <c r="C18" s="88" t="s">
         <v>50</v>
       </c>
       <c r="D18" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="94" t="s">
+      <c r="E18" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="88" t="s">
         <v>62</v>
       </c>
       <c r="G18" s="28" t="s">
@@ -5018,16 +5146,16 @@
       <c r="L18" s="11"/>
     </row>
     <row r="19" spans="1:12" ht="60">
-      <c r="A19" s="82">
+      <c r="A19" s="12">
         <v>15</v>
       </c>
-      <c r="B19" s="93"/>
-      <c r="C19" s="93"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="90"/>
       <c r="D19" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="96"/>
-      <c r="F19" s="93"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="90"/>
       <c r="G19" s="28" t="s">
         <v>63</v>
       </c>
@@ -5038,22 +5166,22 @@
       <c r="L19" s="11"/>
     </row>
     <row r="20" spans="1:12" ht="30" customHeight="1">
-      <c r="A20" s="12">
+      <c r="A20" s="84">
         <v>16</v>
       </c>
-      <c r="B20" s="91" t="s">
+      <c r="B20" s="88" t="s">
         <v>65</v>
       </c>
-      <c r="C20" s="91" t="s">
+      <c r="C20" s="88" t="s">
         <v>66</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F20" s="91" t="s">
+      <c r="F20" s="88" t="s">
         <v>69</v>
       </c>
       <c r="G20" s="28" t="s">
@@ -5069,13 +5197,13 @@
       <c r="A21" s="12">
         <v>17</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="92"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E21" s="95"/>
-      <c r="F21" s="92"/>
+      <c r="E21" s="86"/>
+      <c r="F21" s="89"/>
       <c r="G21" s="28" t="s">
         <v>71</v>
       </c>
@@ -5086,14 +5214,16 @@
       <c r="L21" s="11"/>
     </row>
     <row r="22" spans="1:12" ht="15">
-      <c r="A22" s="82"/>
-      <c r="B22" s="93"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="12">
+        <v>18</v>
+      </c>
+      <c r="B22" s="90"/>
+      <c r="C22" s="90"/>
       <c r="D22" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="96"/>
-      <c r="F22" s="93"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="90"/>
       <c r="G22" s="28" t="s">
         <v>93</v>
       </c>
@@ -5104,22 +5234,22 @@
       <c r="L22" s="11"/>
     </row>
     <row r="23" spans="1:12" ht="45" customHeight="1">
-      <c r="A23" s="82">
-        <v>18</v>
-      </c>
-      <c r="B23" s="91" t="s">
+      <c r="A23" s="84">
+        <v>19</v>
+      </c>
+      <c r="B23" s="88" t="s">
         <v>72</v>
       </c>
-      <c r="C23" s="91" t="s">
+      <c r="C23" s="88" t="s">
         <v>66</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E23" s="94" t="s">
+      <c r="E23" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="91" t="s">
+      <c r="F23" s="88" t="s">
         <v>73</v>
       </c>
       <c r="G23" s="30" t="s">
@@ -5133,15 +5263,15 @@
     </row>
     <row r="24" spans="1:12" ht="90">
       <c r="A24" s="12">
-        <v>19</v>
-      </c>
-      <c r="B24" s="93"/>
-      <c r="C24" s="93"/>
+        <v>20</v>
+      </c>
+      <c r="B24" s="90"/>
+      <c r="C24" s="90"/>
       <c r="D24" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="96"/>
-      <c r="F24" s="93"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="90"/>
       <c r="G24" s="28" t="s">
         <v>97</v>
       </c>
@@ -5153,21 +5283,21 @@
     </row>
     <row r="25" spans="1:12" ht="30">
       <c r="A25" s="12">
-        <v>20</v>
-      </c>
-      <c r="B25" s="91" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="88" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="88" t="s">
+      <c r="C25" s="91" t="s">
         <v>74</v>
       </c>
       <c r="D25" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="94" t="s">
+      <c r="E25" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="91" t="s">
+      <c r="F25" s="88" t="s">
         <v>76</v>
       </c>
       <c r="G25" s="30" t="s">
@@ -5180,16 +5310,16 @@
       <c r="L25" s="11"/>
     </row>
     <row r="26" spans="1:12" ht="45">
-      <c r="A26" s="82">
-        <v>21</v>
-      </c>
-      <c r="B26" s="92"/>
-      <c r="C26" s="89"/>
+      <c r="A26" s="84">
+        <v>22</v>
+      </c>
+      <c r="B26" s="89"/>
+      <c r="C26" s="92"/>
       <c r="D26" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E26" s="95"/>
-      <c r="F26" s="92"/>
+      <c r="E26" s="86"/>
+      <c r="F26" s="89"/>
       <c r="G26" s="30" t="s">
         <v>78</v>
       </c>
@@ -5200,15 +5330,17 @@
       <c r="L26" s="11"/>
     </row>
     <row r="27" spans="1:12" ht="15">
-      <c r="A27" s="82"/>
-      <c r="B27" s="93"/>
-      <c r="C27" s="90"/>
+      <c r="A27" s="12">
+        <v>23</v>
+      </c>
+      <c r="B27" s="90"/>
+      <c r="C27" s="93"/>
       <c r="D27" s="17" t="s">
         <v>110</v>
       </c>
-      <c r="E27" s="96"/>
-      <c r="F27" s="93"/>
-      <c r="G27" s="84" t="s">
+      <c r="E27" s="87"/>
+      <c r="F27" s="90"/>
+      <c r="G27" s="83" t="s">
         <v>111</v>
       </c>
       <c r="H27" s="62"/>
@@ -5219,24 +5351,24 @@
     </row>
     <row r="28" spans="1:12" ht="45">
       <c r="A28" s="12">
-        <v>22</v>
-      </c>
-      <c r="B28" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="88" t="s">
         <v>80</v>
       </c>
-      <c r="C28" s="88" t="s">
+      <c r="C28" s="91" t="s">
         <v>74</v>
       </c>
       <c r="D28" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="94" t="s">
+      <c r="E28" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F28" s="91" t="s">
+      <c r="F28" s="88" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="84" t="s">
+      <c r="G28" s="83" t="s">
         <v>98</v>
       </c>
       <c r="H28" s="62"/>
@@ -5246,17 +5378,17 @@
       <c r="L28" s="11"/>
     </row>
     <row r="29" spans="1:12" ht="30">
-      <c r="A29" s="12">
-        <v>23</v>
-      </c>
-      <c r="B29" s="93"/>
-      <c r="C29" s="90"/>
+      <c r="A29" s="84">
+        <v>25</v>
+      </c>
+      <c r="B29" s="90"/>
+      <c r="C29" s="93"/>
       <c r="D29" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="E29" s="96"/>
-      <c r="F29" s="93"/>
-      <c r="G29" s="84" t="s">
+      <c r="E29" s="87"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="83" t="s">
         <v>81</v>
       </c>
       <c r="H29" s="62"/>
@@ -5266,22 +5398,22 @@
       <c r="L29" s="11"/>
     </row>
     <row r="30" spans="1:12" ht="30">
-      <c r="A30" s="82">
-        <v>24</v>
-      </c>
-      <c r="B30" s="91" t="s">
+      <c r="A30" s="12">
+        <v>26</v>
+      </c>
+      <c r="B30" s="88" t="s">
         <v>82</v>
       </c>
-      <c r="C30" s="88" t="s">
+      <c r="C30" s="91" t="s">
         <v>83</v>
       </c>
       <c r="D30" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="E30" s="94" t="s">
+      <c r="E30" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="91" t="s">
+      <c r="F30" s="88" t="s">
         <v>84</v>
       </c>
       <c r="G30" s="30" t="s">
@@ -5295,15 +5427,15 @@
     </row>
     <row r="31" spans="1:12" ht="30">
       <c r="A31" s="12">
-        <v>25</v>
-      </c>
-      <c r="B31" s="92"/>
-      <c r="C31" s="89"/>
+        <v>27</v>
+      </c>
+      <c r="B31" s="89"/>
+      <c r="C31" s="92"/>
       <c r="D31" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="95"/>
-      <c r="F31" s="92"/>
+      <c r="E31" s="86"/>
+      <c r="F31" s="89"/>
       <c r="G31" s="35" t="s">
         <v>139</v>
       </c>
@@ -5314,16 +5446,16 @@
       <c r="L31" s="11"/>
     </row>
     <row r="32" spans="1:12" ht="30">
-      <c r="A32" s="12">
-        <v>26</v>
-      </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="90"/>
+      <c r="A32" s="84">
+        <v>28</v>
+      </c>
+      <c r="B32" s="90"/>
+      <c r="C32" s="93"/>
       <c r="D32" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E32" s="96"/>
-      <c r="F32" s="93"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="90"/>
       <c r="G32" s="35" t="s">
         <v>141</v>
       </c>
@@ -5335,21 +5467,21 @@
     </row>
     <row r="33" spans="1:12" ht="30" customHeight="1">
       <c r="A33" s="12">
-        <v>27</v>
-      </c>
-      <c r="B33" s="91" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="88" t="s">
         <v>88</v>
       </c>
-      <c r="C33" s="88" t="s">
+      <c r="C33" s="91" t="s">
         <v>89</v>
       </c>
       <c r="D33" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E33" s="94" t="s">
+      <c r="E33" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="91" t="s">
+      <c r="F33" s="88" t="s">
         <v>92</v>
       </c>
       <c r="G33" s="30" t="s">
@@ -5362,16 +5494,16 @@
       <c r="L33" s="11"/>
     </row>
     <row r="34" spans="1:12" ht="30">
-      <c r="A34" s="83">
-        <v>28</v>
-      </c>
-      <c r="B34" s="92"/>
-      <c r="C34" s="89"/>
+      <c r="A34" s="12">
+        <v>30</v>
+      </c>
+      <c r="B34" s="89"/>
+      <c r="C34" s="92"/>
       <c r="D34" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E34" s="95"/>
-      <c r="F34" s="92"/>
+      <c r="E34" s="86"/>
+      <c r="F34" s="89"/>
       <c r="G34" s="30" t="s">
         <v>71</v>
       </c>
@@ -5382,16 +5514,16 @@
       <c r="L34" s="11"/>
     </row>
     <row r="35" spans="1:12" ht="30">
-      <c r="A35" s="12">
-        <v>29</v>
-      </c>
-      <c r="B35" s="92"/>
-      <c r="C35" s="89"/>
+      <c r="A35" s="84">
+        <v>31</v>
+      </c>
+      <c r="B35" s="89"/>
+      <c r="C35" s="92"/>
       <c r="D35" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E35" s="95"/>
-      <c r="F35" s="92"/>
+      <c r="E35" s="86"/>
+      <c r="F35" s="89"/>
       <c r="G35" s="30" t="s">
         <v>55</v>
       </c>
@@ -5402,16 +5534,16 @@
       <c r="L35" s="11"/>
     </row>
     <row r="36" spans="1:12" ht="30">
-      <c r="A36" s="82">
-        <v>30</v>
-      </c>
-      <c r="B36" s="92"/>
-      <c r="C36" s="89"/>
+      <c r="A36" s="12">
+        <v>32</v>
+      </c>
+      <c r="B36" s="89"/>
+      <c r="C36" s="92"/>
       <c r="D36" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E36" s="95"/>
-      <c r="F36" s="92"/>
+      <c r="E36" s="86"/>
+      <c r="F36" s="89"/>
       <c r="G36" s="28" t="s">
         <v>101</v>
       </c>
@@ -5423,15 +5555,15 @@
     </row>
     <row r="37" spans="1:12" ht="15">
       <c r="A37" s="12">
-        <v>31</v>
-      </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="90"/>
+        <v>33</v>
+      </c>
+      <c r="B37" s="90"/>
+      <c r="C37" s="93"/>
       <c r="D37" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E37" s="96"/>
-      <c r="F37" s="93"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="90"/>
       <c r="G37" s="28" t="s">
         <v>93</v>
       </c>
@@ -5442,22 +5574,22 @@
       <c r="L37" s="11"/>
     </row>
     <row r="38" spans="1:12" ht="30" customHeight="1">
-      <c r="A38" s="12">
-        <v>32</v>
-      </c>
-      <c r="B38" s="91" t="s">
+      <c r="A38" s="84">
+        <v>34</v>
+      </c>
+      <c r="B38" s="88" t="s">
         <v>94</v>
       </c>
-      <c r="C38" s="91" t="s">
+      <c r="C38" s="88" t="s">
         <v>89</v>
       </c>
       <c r="D38" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E38" s="85" t="s">
+      <c r="E38" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="88" t="s">
+      <c r="F38" s="91" t="s">
         <v>95</v>
       </c>
       <c r="G38" s="30" t="s">
@@ -5470,16 +5602,16 @@
       <c r="L38" s="11"/>
     </row>
     <row r="39" spans="1:12" ht="45">
-      <c r="A39" s="82">
-        <v>33</v>
-      </c>
-      <c r="B39" s="92"/>
-      <c r="C39" s="92"/>
+      <c r="A39" s="12">
+        <v>35</v>
+      </c>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
       <c r="D39" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="86"/>
-      <c r="F39" s="89"/>
+      <c r="E39" s="95"/>
+      <c r="F39" s="92"/>
       <c r="G39" s="30" t="s">
         <v>102</v>
       </c>
@@ -5491,15 +5623,15 @@
     </row>
     <row r="40" spans="1:12" ht="45">
       <c r="A40" s="12">
-        <v>34</v>
-      </c>
-      <c r="B40" s="92"/>
-      <c r="C40" s="92"/>
+        <v>36</v>
+      </c>
+      <c r="B40" s="89"/>
+      <c r="C40" s="89"/>
       <c r="D40" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E40" s="86"/>
-      <c r="F40" s="89"/>
+      <c r="E40" s="95"/>
+      <c r="F40" s="92"/>
       <c r="G40" s="30" t="s">
         <v>103</v>
       </c>
@@ -5510,17 +5642,17 @@
       <c r="L40" s="11"/>
     </row>
     <row r="41" spans="1:12" ht="30">
-      <c r="A41" s="12">
-        <v>35</v>
-      </c>
-      <c r="B41" s="93"/>
-      <c r="C41" s="93"/>
+      <c r="A41" s="84">
+        <v>37</v>
+      </c>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
       <c r="D41" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="87"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="84" t="s">
+      <c r="E41" s="96"/>
+      <c r="F41" s="93"/>
+      <c r="G41" s="83" t="s">
         <v>81</v>
       </c>
       <c r="H41" s="62"/>
@@ -5530,22 +5662,22 @@
       <c r="L41" s="11"/>
     </row>
     <row r="42" spans="1:12" ht="30" customHeight="1">
-      <c r="A42" s="82">
-        <v>36</v>
-      </c>
-      <c r="B42" s="91" t="s">
+      <c r="A42" s="12">
+        <v>38</v>
+      </c>
+      <c r="B42" s="88" t="s">
         <v>104</v>
       </c>
-      <c r="C42" s="88" t="s">
+      <c r="C42" s="91" t="s">
         <v>105</v>
       </c>
       <c r="D42" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E42" s="85" t="s">
+      <c r="E42" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F42" s="88" t="s">
+      <c r="F42" s="91" t="s">
         <v>106</v>
       </c>
       <c r="G42" s="30" t="s">
@@ -5559,15 +5691,15 @@
     </row>
     <row r="43" spans="1:12" ht="30">
       <c r="A43" s="12">
-        <v>37</v>
-      </c>
-      <c r="B43" s="92"/>
-      <c r="C43" s="89"/>
+        <v>39</v>
+      </c>
+      <c r="B43" s="89"/>
+      <c r="C43" s="92"/>
       <c r="D43" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E43" s="86"/>
-      <c r="F43" s="89"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="92"/>
       <c r="G43" s="30" t="s">
         <v>108</v>
       </c>
@@ -5578,16 +5710,16 @@
       <c r="L43" s="11"/>
     </row>
     <row r="44" spans="1:12" ht="30">
-      <c r="A44" s="12">
-        <v>38</v>
-      </c>
-      <c r="B44" s="92"/>
-      <c r="C44" s="89"/>
+      <c r="A44" s="84">
+        <v>40</v>
+      </c>
+      <c r="B44" s="89"/>
+      <c r="C44" s="92"/>
       <c r="D44" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E44" s="86"/>
-      <c r="F44" s="89"/>
+      <c r="E44" s="95"/>
+      <c r="F44" s="92"/>
       <c r="G44" s="30" t="s">
         <v>109</v>
       </c>
@@ -5599,15 +5731,15 @@
     </row>
     <row r="45" spans="1:12" ht="15">
       <c r="A45" s="12">
-        <v>39</v>
-      </c>
-      <c r="B45" s="92"/>
-      <c r="C45" s="89"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="89"/>
+      <c r="C45" s="92"/>
       <c r="D45" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E45" s="86"/>
-      <c r="F45" s="89"/>
+      <c r="E45" s="95"/>
+      <c r="F45" s="92"/>
       <c r="G45" s="30" t="s">
         <v>111</v>
       </c>
@@ -5618,14 +5750,16 @@
       <c r="L45" s="11"/>
     </row>
     <row r="46" spans="1:12" ht="15">
-      <c r="A46" s="83"/>
-      <c r="B46" s="93"/>
-      <c r="C46" s="90"/>
+      <c r="A46" s="12">
+        <v>42</v>
+      </c>
+      <c r="B46" s="90"/>
+      <c r="C46" s="93"/>
       <c r="D46" s="11" t="s">
         <v>171</v>
       </c>
-      <c r="E46" s="87"/>
-      <c r="F46" s="90"/>
+      <c r="E46" s="96"/>
+      <c r="F46" s="93"/>
       <c r="G46" s="30" t="s">
         <v>172</v>
       </c>
@@ -5636,26 +5770,26 @@
       <c r="L46" s="11"/>
     </row>
     <row r="47" spans="1:12" ht="30" customHeight="1">
-      <c r="A47" s="12">
-        <v>27</v>
-      </c>
-      <c r="B47" s="91" t="s">
-        <v>261</v>
-      </c>
-      <c r="C47" s="88" t="s">
+      <c r="A47" s="84">
+        <v>43</v>
+      </c>
+      <c r="B47" s="88" t="s">
+        <v>260</v>
+      </c>
+      <c r="C47" s="91" t="s">
         <v>89</v>
       </c>
       <c r="D47" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="E47" s="94" t="s">
+      <c r="E47" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F47" s="91" t="s">
-        <v>262</v>
+      <c r="F47" s="88" t="s">
+        <v>261</v>
       </c>
       <c r="G47" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H47" s="62"/>
       <c r="I47" s="12"/>
@@ -5664,18 +5798,18 @@
       <c r="L47" s="11"/>
     </row>
     <row r="48" spans="1:12" ht="30">
-      <c r="A48" s="83">
-        <v>28</v>
-      </c>
-      <c r="B48" s="92"/>
-      <c r="C48" s="89"/>
+      <c r="A48" s="12">
+        <v>44</v>
+      </c>
+      <c r="B48" s="89"/>
+      <c r="C48" s="92"/>
       <c r="D48" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="E48" s="95"/>
-      <c r="F48" s="92"/>
+      <c r="E48" s="86"/>
+      <c r="F48" s="89"/>
       <c r="G48" s="30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="H48" s="62"/>
       <c r="I48" s="12"/>
@@ -5685,17 +5819,17 @@
     </row>
     <row r="49" spans="1:12" ht="30" customHeight="1">
       <c r="A49" s="12">
-        <v>29</v>
-      </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="89"/>
+        <v>45</v>
+      </c>
+      <c r="B49" s="89"/>
+      <c r="C49" s="92"/>
       <c r="D49" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="E49" s="95"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="88" t="s">
-        <v>266</v>
+      <c r="E49" s="86"/>
+      <c r="F49" s="89"/>
+      <c r="G49" s="91" t="s">
+        <v>265</v>
       </c>
       <c r="H49" s="62"/>
       <c r="I49" s="12"/>
@@ -5704,17 +5838,17 @@
       <c r="L49" s="11"/>
     </row>
     <row r="50" spans="1:12" ht="15">
-      <c r="A50" s="82">
-        <v>30</v>
-      </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="89"/>
+      <c r="A50" s="84">
+        <v>46</v>
+      </c>
+      <c r="B50" s="89"/>
+      <c r="C50" s="92"/>
       <c r="D50" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="E50" s="95"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="90"/>
+      <c r="E50" s="86"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="93"/>
       <c r="H50" s="62"/>
       <c r="I50" s="12"/>
       <c r="J50" s="59"/>
@@ -5723,15 +5857,15 @@
     </row>
     <row r="51" spans="1:12" ht="15">
       <c r="A51" s="12">
-        <v>31</v>
-      </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="90"/>
+        <v>47</v>
+      </c>
+      <c r="B51" s="90"/>
+      <c r="C51" s="93"/>
       <c r="D51" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E51" s="96"/>
-      <c r="F51" s="93"/>
+      <c r="E51" s="87"/>
+      <c r="F51" s="90"/>
       <c r="G51" s="28" t="s">
         <v>93</v>
       </c>
@@ -5742,22 +5876,22 @@
       <c r="L51" s="11"/>
     </row>
     <row r="52" spans="1:12" ht="30">
-      <c r="A52" s="83">
-        <v>40</v>
-      </c>
-      <c r="B52" s="91" t="s">
+      <c r="A52" s="12">
+        <v>48</v>
+      </c>
+      <c r="B52" s="88" t="s">
         <v>112</v>
       </c>
-      <c r="C52" s="88" t="s">
+      <c r="C52" s="91" t="s">
         <v>113</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E52" s="85" t="s">
+      <c r="E52" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="88" t="s">
+      <c r="F52" s="91" t="s">
         <v>114</v>
       </c>
       <c r="G52" s="30" t="s">
@@ -5770,16 +5904,16 @@
       <c r="L52" s="11"/>
     </row>
     <row r="53" spans="1:12" ht="30">
-      <c r="A53" s="12">
-        <v>41</v>
-      </c>
-      <c r="B53" s="92"/>
-      <c r="C53" s="89"/>
+      <c r="A53" s="84">
+        <v>49</v>
+      </c>
+      <c r="B53" s="89"/>
+      <c r="C53" s="92"/>
       <c r="D53" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E53" s="86"/>
-      <c r="F53" s="89"/>
+      <c r="E53" s="95"/>
+      <c r="F53" s="92"/>
       <c r="G53" s="35" t="s">
         <v>139</v>
       </c>
@@ -5791,15 +5925,15 @@
     </row>
     <row r="54" spans="1:12" ht="30">
       <c r="A54" s="12">
-        <v>42</v>
-      </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="90"/>
+        <v>50</v>
+      </c>
+      <c r="B54" s="90"/>
+      <c r="C54" s="93"/>
       <c r="D54" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E54" s="87"/>
-      <c r="F54" s="90"/>
+      <c r="E54" s="96"/>
+      <c r="F54" s="93"/>
       <c r="G54" s="35" t="s">
         <v>141</v>
       </c>
@@ -5811,21 +5945,21 @@
     </row>
     <row r="55" spans="1:12" ht="15">
       <c r="A55" s="12">
-        <v>43</v>
-      </c>
-      <c r="B55" s="91" t="s">
+        <v>51</v>
+      </c>
+      <c r="B55" s="88" t="s">
         <v>115</v>
       </c>
-      <c r="C55" s="88" t="s">
+      <c r="C55" s="91" t="s">
         <v>116</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="85" t="s">
+      <c r="E55" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="88" t="s">
+      <c r="F55" s="91" t="s">
         <v>122</v>
       </c>
       <c r="G55" s="30" t="s">
@@ -5838,16 +5972,16 @@
       <c r="L55" s="11"/>
     </row>
     <row r="56" spans="1:12" ht="15">
-      <c r="A56" s="12">
-        <v>44</v>
-      </c>
-      <c r="B56" s="92"/>
-      <c r="C56" s="89"/>
+      <c r="A56" s="84">
+        <v>52</v>
+      </c>
+      <c r="B56" s="89"/>
+      <c r="C56" s="92"/>
       <c r="D56" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E56" s="86"/>
-      <c r="F56" s="89"/>
+      <c r="E56" s="95"/>
+      <c r="F56" s="92"/>
       <c r="G56" s="30" t="s">
         <v>124</v>
       </c>
@@ -5858,16 +5992,16 @@
       <c r="L56" s="11"/>
     </row>
     <row r="57" spans="1:12" ht="30">
-      <c r="A57" s="82">
-        <v>45</v>
-      </c>
-      <c r="B57" s="92"/>
-      <c r="C57" s="89"/>
+      <c r="A57" s="12">
+        <v>53</v>
+      </c>
+      <c r="B57" s="89"/>
+      <c r="C57" s="92"/>
       <c r="D57" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E57" s="86"/>
-      <c r="F57" s="89"/>
+      <c r="E57" s="95"/>
+      <c r="F57" s="92"/>
       <c r="G57" s="30" t="s">
         <v>125</v>
       </c>
@@ -5879,15 +6013,15 @@
     </row>
     <row r="58" spans="1:12" ht="30">
       <c r="A58" s="12">
-        <v>46</v>
-      </c>
-      <c r="B58" s="92"/>
-      <c r="C58" s="89"/>
+        <v>54</v>
+      </c>
+      <c r="B58" s="89"/>
+      <c r="C58" s="92"/>
       <c r="D58" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E58" s="86"/>
-      <c r="F58" s="89"/>
+      <c r="E58" s="95"/>
+      <c r="F58" s="92"/>
       <c r="G58" s="30" t="s">
         <v>126</v>
       </c>
@@ -5898,16 +6032,16 @@
       <c r="L58" s="11"/>
     </row>
     <row r="59" spans="1:12" ht="30">
-      <c r="A59" s="12">
-        <v>47</v>
-      </c>
-      <c r="B59" s="92"/>
-      <c r="C59" s="89"/>
+      <c r="A59" s="84">
+        <v>55</v>
+      </c>
+      <c r="B59" s="89"/>
+      <c r="C59" s="92"/>
       <c r="D59" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E59" s="86"/>
-      <c r="F59" s="89"/>
+      <c r="E59" s="95"/>
+      <c r="F59" s="92"/>
       <c r="G59" s="30" t="s">
         <v>127</v>
       </c>
@@ -5918,16 +6052,16 @@
       <c r="L59" s="11"/>
     </row>
     <row r="60" spans="1:12" ht="15">
-      <c r="A60" s="82">
-        <v>48</v>
-      </c>
-      <c r="B60" s="93"/>
-      <c r="C60" s="90"/>
+      <c r="A60" s="12">
+        <v>56</v>
+      </c>
+      <c r="B60" s="90"/>
+      <c r="C60" s="93"/>
       <c r="D60" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E60" s="87"/>
-      <c r="F60" s="90"/>
+      <c r="E60" s="96"/>
+      <c r="F60" s="93"/>
       <c r="G60" s="30" t="s">
         <v>111</v>
       </c>
@@ -5939,21 +6073,21 @@
     </row>
     <row r="61" spans="1:12" ht="30" customHeight="1">
       <c r="A61" s="12">
-        <v>49</v>
-      </c>
-      <c r="B61" s="91" t="s">
+        <v>57</v>
+      </c>
+      <c r="B61" s="88" t="s">
         <v>121</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="91" t="s">
         <v>116</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E61" s="85" t="s">
+      <c r="E61" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F61" s="88" t="s">
+      <c r="F61" s="91" t="s">
         <v>123</v>
       </c>
       <c r="G61" s="30" t="s">
@@ -5966,16 +6100,16 @@
       <c r="L61" s="11"/>
     </row>
     <row r="62" spans="1:12" ht="30">
-      <c r="A62" s="12">
-        <v>50</v>
-      </c>
-      <c r="B62" s="92"/>
-      <c r="C62" s="89"/>
+      <c r="A62" s="84">
+        <v>58</v>
+      </c>
+      <c r="B62" s="89"/>
+      <c r="C62" s="92"/>
       <c r="D62" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E62" s="86"/>
-      <c r="F62" s="89"/>
+      <c r="E62" s="95"/>
+      <c r="F62" s="92"/>
       <c r="G62" s="30" t="s">
         <v>128</v>
       </c>
@@ -5986,16 +6120,16 @@
       <c r="L62" s="11"/>
     </row>
     <row r="63" spans="1:12" ht="30">
-      <c r="A63" s="82">
-        <v>51</v>
-      </c>
-      <c r="B63" s="93"/>
-      <c r="C63" s="89"/>
+      <c r="A63" s="12">
+        <v>59</v>
+      </c>
+      <c r="B63" s="90"/>
+      <c r="C63" s="92"/>
       <c r="D63" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="87"/>
-      <c r="F63" s="90"/>
+      <c r="E63" s="96"/>
+      <c r="F63" s="93"/>
       <c r="G63" s="30" t="s">
         <v>129</v>
       </c>
@@ -6007,21 +6141,21 @@
     </row>
     <row r="64" spans="1:12" ht="30">
       <c r="A64" s="12">
-        <v>52</v>
-      </c>
-      <c r="B64" s="91" t="s">
+        <v>60</v>
+      </c>
+      <c r="B64" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="C64" s="91" t="s">
+      <c r="C64" s="88" t="s">
         <v>131</v>
       </c>
       <c r="D64" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E64" s="85" t="s">
+      <c r="E64" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F64" s="88" t="s">
+      <c r="F64" s="91" t="s">
         <v>132</v>
       </c>
       <c r="G64" s="30" t="s">
@@ -6034,16 +6168,16 @@
       <c r="L64" s="11"/>
     </row>
     <row r="65" spans="1:12" ht="30">
-      <c r="A65" s="12">
-        <v>53</v>
-      </c>
-      <c r="B65" s="92"/>
-      <c r="C65" s="92"/>
+      <c r="A65" s="84">
+        <v>61</v>
+      </c>
+      <c r="B65" s="89"/>
+      <c r="C65" s="89"/>
       <c r="D65" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E65" s="86"/>
-      <c r="F65" s="89"/>
+      <c r="E65" s="95"/>
+      <c r="F65" s="92"/>
       <c r="G65" s="35" t="s">
         <v>139</v>
       </c>
@@ -6054,16 +6188,16 @@
       <c r="L65" s="11"/>
     </row>
     <row r="66" spans="1:12" ht="30">
-      <c r="A66" s="82">
-        <v>54</v>
-      </c>
-      <c r="B66" s="93"/>
-      <c r="C66" s="93"/>
+      <c r="A66" s="12">
+        <v>62</v>
+      </c>
+      <c r="B66" s="90"/>
+      <c r="C66" s="90"/>
       <c r="D66" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E66" s="87"/>
-      <c r="F66" s="90"/>
+      <c r="E66" s="96"/>
+      <c r="F66" s="93"/>
       <c r="G66" s="35" t="s">
         <v>141</v>
       </c>
@@ -6075,21 +6209,21 @@
     </row>
     <row r="67" spans="1:12" ht="30" customHeight="1">
       <c r="A67" s="12">
-        <v>55</v>
-      </c>
-      <c r="B67" s="91" t="s">
+        <v>63</v>
+      </c>
+      <c r="B67" s="88" t="s">
         <v>133</v>
       </c>
-      <c r="C67" s="91" t="s">
+      <c r="C67" s="88" t="s">
         <v>134</v>
       </c>
       <c r="D67" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E67" s="85" t="s">
+      <c r="E67" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F67" s="88" t="s">
+      <c r="F67" s="91" t="s">
         <v>142</v>
       </c>
       <c r="G67" s="30" t="s">
@@ -6102,16 +6236,16 @@
       <c r="L67" s="11"/>
     </row>
     <row r="68" spans="1:12" ht="30">
-      <c r="A68" s="12">
-        <v>56</v>
-      </c>
-      <c r="B68" s="92"/>
-      <c r="C68" s="92"/>
+      <c r="A68" s="84">
+        <v>64</v>
+      </c>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E68" s="86"/>
-      <c r="F68" s="89"/>
+      <c r="E68" s="95"/>
+      <c r="F68" s="92"/>
       <c r="G68" s="30" t="s">
         <v>143</v>
       </c>
@@ -6122,16 +6256,16 @@
       <c r="L68" s="11"/>
     </row>
     <row r="69" spans="1:12" ht="30">
-      <c r="A69" s="82">
-        <v>57</v>
-      </c>
-      <c r="B69" s="92"/>
-      <c r="C69" s="92"/>
+      <c r="A69" s="12">
+        <v>65</v>
+      </c>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
       <c r="D69" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E69" s="86"/>
-      <c r="F69" s="89"/>
+      <c r="E69" s="95"/>
+      <c r="F69" s="92"/>
       <c r="G69" s="30" t="s">
         <v>144</v>
       </c>
@@ -6143,15 +6277,15 @@
     </row>
     <row r="70" spans="1:12" ht="30">
       <c r="A70" s="12">
-        <v>58</v>
-      </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
+        <v>66</v>
+      </c>
+      <c r="B70" s="89"/>
+      <c r="C70" s="89"/>
       <c r="D70" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E70" s="86"/>
-      <c r="F70" s="89"/>
+      <c r="E70" s="95"/>
+      <c r="F70" s="92"/>
       <c r="G70" s="30" t="s">
         <v>145</v>
       </c>
@@ -6162,16 +6296,16 @@
       <c r="L70" s="11"/>
     </row>
     <row r="71" spans="1:12" ht="30">
-      <c r="A71" s="12">
-        <v>59</v>
-      </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
+      <c r="A71" s="84">
+        <v>67</v>
+      </c>
+      <c r="B71" s="89"/>
+      <c r="C71" s="89"/>
       <c r="D71" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E71" s="86"/>
-      <c r="F71" s="89"/>
+      <c r="E71" s="95"/>
+      <c r="F71" s="92"/>
       <c r="G71" s="30" t="s">
         <v>146</v>
       </c>
@@ -6183,15 +6317,15 @@
     </row>
     <row r="72" spans="1:12" ht="15">
       <c r="A72" s="12">
-        <v>60</v>
-      </c>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
+        <v>68</v>
+      </c>
+      <c r="B72" s="89"/>
+      <c r="C72" s="89"/>
       <c r="D72" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E72" s="86"/>
-      <c r="F72" s="89"/>
+      <c r="E72" s="95"/>
+      <c r="F72" s="92"/>
       <c r="G72" s="35" t="s">
         <v>147</v>
       </c>
@@ -6203,15 +6337,15 @@
     </row>
     <row r="73" spans="1:12" ht="15">
       <c r="A73" s="12">
-        <v>61</v>
-      </c>
-      <c r="B73" s="92"/>
-      <c r="C73" s="92"/>
+        <v>69</v>
+      </c>
+      <c r="B73" s="89"/>
+      <c r="C73" s="89"/>
       <c r="D73" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E73" s="86"/>
-      <c r="F73" s="89"/>
+      <c r="E73" s="95"/>
+      <c r="F73" s="92"/>
       <c r="G73" s="35" t="s">
         <v>148</v>
       </c>
@@ -6222,16 +6356,16 @@
       <c r="L73" s="11"/>
     </row>
     <row r="74" spans="1:12" ht="30">
-      <c r="A74" s="12">
-        <v>62</v>
-      </c>
-      <c r="B74" s="93"/>
-      <c r="C74" s="93"/>
+      <c r="A74" s="84">
+        <v>70</v>
+      </c>
+      <c r="B74" s="90"/>
+      <c r="C74" s="90"/>
       <c r="D74" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E74" s="87"/>
-      <c r="F74" s="90"/>
+      <c r="E74" s="96"/>
+      <c r="F74" s="93"/>
       <c r="G74" s="35" t="s">
         <v>139</v>
       </c>
@@ -6242,20 +6376,22 @@
       <c r="L74" s="11"/>
     </row>
     <row r="75" spans="1:12" ht="30">
-      <c r="A75" s="12"/>
-      <c r="B75" s="91" t="s">
+      <c r="A75" s="12">
+        <v>71</v>
+      </c>
+      <c r="B75" s="88" t="s">
         <v>149</v>
       </c>
-      <c r="C75" s="91" t="s">
+      <c r="C75" s="88" t="s">
         <v>150</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E75" s="85" t="s">
+      <c r="E75" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F75" s="88" t="s">
+      <c r="F75" s="91" t="s">
         <v>151</v>
       </c>
       <c r="G75" s="30" t="s">
@@ -6268,14 +6404,16 @@
       <c r="L75" s="11"/>
     </row>
     <row r="76" spans="1:12" ht="30">
-      <c r="A76" s="12"/>
-      <c r="B76" s="92"/>
-      <c r="C76" s="92"/>
+      <c r="A76" s="12">
+        <v>72</v>
+      </c>
+      <c r="B76" s="89"/>
+      <c r="C76" s="89"/>
       <c r="D76" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E76" s="86"/>
-      <c r="F76" s="89"/>
+      <c r="E76" s="95"/>
+      <c r="F76" s="92"/>
       <c r="G76" s="30" t="s">
         <v>143</v>
       </c>
@@ -6286,16 +6424,18 @@
       <c r="L76" s="11"/>
     </row>
     <row r="77" spans="1:12" ht="30">
-      <c r="A77" s="12"/>
-      <c r="B77" s="92"/>
-      <c r="C77" s="92"/>
+      <c r="A77" s="84">
+        <v>73</v>
+      </c>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
       <c r="D77" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E77" s="86"/>
-      <c r="F77" s="89"/>
+      <c r="E77" s="95"/>
+      <c r="F77" s="92"/>
       <c r="G77" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H77" s="62"/>
       <c r="I77" s="12"/>
@@ -6304,16 +6444,18 @@
       <c r="L77" s="11"/>
     </row>
     <row r="78" spans="1:12" ht="30">
-      <c r="A78" s="12"/>
-      <c r="B78" s="92"/>
-      <c r="C78" s="92"/>
+      <c r="A78" s="12">
+        <v>74</v>
+      </c>
+      <c r="B78" s="89"/>
+      <c r="C78" s="89"/>
       <c r="D78" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E78" s="86"/>
-      <c r="F78" s="89"/>
+      <c r="E78" s="95"/>
+      <c r="F78" s="92"/>
       <c r="G78" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H78" s="62"/>
       <c r="I78" s="12"/>
@@ -6322,16 +6464,18 @@
       <c r="L78" s="11"/>
     </row>
     <row r="79" spans="1:12" ht="30">
-      <c r="A79" s="12"/>
-      <c r="B79" s="92"/>
-      <c r="C79" s="92"/>
+      <c r="A79" s="12">
+        <v>75</v>
+      </c>
+      <c r="B79" s="89"/>
+      <c r="C79" s="89"/>
       <c r="D79" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E79" s="86"/>
-      <c r="F79" s="89"/>
+      <c r="E79" s="95"/>
+      <c r="F79" s="92"/>
       <c r="G79" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H79" s="62"/>
       <c r="I79" s="12"/>
@@ -6340,14 +6484,16 @@
       <c r="L79" s="11"/>
     </row>
     <row r="80" spans="1:12" ht="15">
-      <c r="A80" s="12"/>
-      <c r="B80" s="93"/>
-      <c r="C80" s="93"/>
+      <c r="A80" s="84">
+        <v>76</v>
+      </c>
+      <c r="B80" s="90"/>
+      <c r="C80" s="90"/>
       <c r="D80" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E80" s="87"/>
-      <c r="F80" s="90"/>
+      <c r="E80" s="96"/>
+      <c r="F80" s="93"/>
       <c r="G80" s="29" t="s">
         <v>93</v>
       </c>
@@ -6358,20 +6504,22 @@
       <c r="L80" s="11"/>
     </row>
     <row r="81" spans="1:12" ht="30" customHeight="1">
-      <c r="A81" s="12"/>
-      <c r="B81" s="91" t="s">
+      <c r="A81" s="12">
+        <v>77</v>
+      </c>
+      <c r="B81" s="88" t="s">
         <v>153</v>
       </c>
-      <c r="C81" s="91" t="s">
+      <c r="C81" s="88" t="s">
         <v>150</v>
       </c>
       <c r="D81" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E81" s="85" t="s">
+      <c r="E81" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F81" s="88" t="s">
+      <c r="F81" s="91" t="s">
         <v>152</v>
       </c>
       <c r="G81" s="30" t="s">
@@ -6384,14 +6532,16 @@
       <c r="L81" s="11"/>
     </row>
     <row r="82" spans="1:12" ht="30">
-      <c r="A82" s="12"/>
-      <c r="B82" s="92"/>
-      <c r="C82" s="92"/>
+      <c r="A82" s="12">
+        <v>78</v>
+      </c>
+      <c r="B82" s="89"/>
+      <c r="C82" s="89"/>
       <c r="D82" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E82" s="86"/>
-      <c r="F82" s="89"/>
+      <c r="E82" s="95"/>
+      <c r="F82" s="92"/>
       <c r="G82" s="30" t="s">
         <v>128</v>
       </c>
@@ -6402,14 +6552,16 @@
       <c r="L82" s="11"/>
     </row>
     <row r="83" spans="1:12" ht="30">
-      <c r="A83" s="12"/>
-      <c r="B83" s="92"/>
-      <c r="C83" s="92"/>
+      <c r="A83" s="84">
+        <v>79</v>
+      </c>
+      <c r="B83" s="89"/>
+      <c r="C83" s="89"/>
       <c r="D83" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E83" s="87"/>
-      <c r="F83" s="90"/>
+      <c r="E83" s="96"/>
+      <c r="F83" s="93"/>
       <c r="G83" s="30" t="s">
         <v>129</v>
       </c>
@@ -6420,23 +6572,25 @@
       <c r="L83" s="11"/>
     </row>
     <row r="84" spans="1:12" ht="15" customHeight="1">
-      <c r="A84" s="12"/>
-      <c r="B84" s="91" t="s">
+      <c r="A84" s="12">
+        <v>80</v>
+      </c>
+      <c r="B84" s="88" t="s">
         <v>154</v>
       </c>
-      <c r="C84" s="91" t="s">
+      <c r="C84" s="88" t="s">
         <v>155</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E84" s="85" t="s">
+      <c r="E84" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F84" s="88" t="s">
+      <c r="F84" s="91" t="s">
         <v>156</v>
       </c>
-      <c r="G84" s="91" t="s">
+      <c r="G84" s="88" t="s">
         <v>157</v>
       </c>
       <c r="H84" s="12"/>
@@ -6446,15 +6600,17 @@
       <c r="L84" s="11"/>
     </row>
     <row r="85" spans="1:12" ht="15">
-      <c r="A85" s="12"/>
-      <c r="B85" s="92"/>
-      <c r="C85" s="92"/>
+      <c r="A85" s="12">
+        <v>81</v>
+      </c>
+      <c r="B85" s="89"/>
+      <c r="C85" s="89"/>
       <c r="D85" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E85" s="86"/>
-      <c r="F85" s="89"/>
-      <c r="G85" s="93"/>
+      <c r="E85" s="95"/>
+      <c r="F85" s="92"/>
+      <c r="G85" s="90"/>
       <c r="H85" s="12"/>
       <c r="I85" s="12"/>
       <c r="J85" s="28"/>
@@ -6462,14 +6618,16 @@
       <c r="L85" s="11"/>
     </row>
     <row r="86" spans="1:12" ht="15">
-      <c r="A86" s="12"/>
-      <c r="B86" s="92"/>
-      <c r="C86" s="92"/>
+      <c r="A86" s="84">
+        <v>82</v>
+      </c>
+      <c r="B86" s="89"/>
+      <c r="C86" s="89"/>
       <c r="D86" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E86" s="86"/>
-      <c r="F86" s="89"/>
+      <c r="E86" s="95"/>
+      <c r="F86" s="92"/>
       <c r="G86" s="29" t="s">
         <v>158</v>
       </c>
@@ -6480,14 +6638,16 @@
       <c r="L86" s="11"/>
     </row>
     <row r="87" spans="1:12" ht="15">
-      <c r="A87" s="12"/>
-      <c r="B87" s="92"/>
-      <c r="C87" s="92"/>
+      <c r="A87" s="12">
+        <v>83</v>
+      </c>
+      <c r="B87" s="89"/>
+      <c r="C87" s="89"/>
       <c r="D87" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E87" s="86"/>
-      <c r="F87" s="89"/>
+      <c r="E87" s="95"/>
+      <c r="F87" s="92"/>
       <c r="G87" s="29" t="s">
         <v>159</v>
       </c>
@@ -6498,14 +6658,16 @@
       <c r="L87" s="11"/>
     </row>
     <row r="88" spans="1:12" ht="15">
-      <c r="A88" s="12"/>
-      <c r="B88" s="92"/>
-      <c r="C88" s="92"/>
+      <c r="A88" s="12">
+        <v>84</v>
+      </c>
+      <c r="B88" s="89"/>
+      <c r="C88" s="89"/>
       <c r="D88" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E88" s="86"/>
-      <c r="F88" s="89"/>
+      <c r="E88" s="95"/>
+      <c r="F88" s="92"/>
       <c r="G88" s="29" t="s">
         <v>160</v>
       </c>
@@ -6516,14 +6678,16 @@
       <c r="L88" s="11"/>
     </row>
     <row r="89" spans="1:12" ht="15">
-      <c r="A89" s="12"/>
-      <c r="B89" s="92"/>
-      <c r="C89" s="92"/>
+      <c r="A89" s="84">
+        <v>85</v>
+      </c>
+      <c r="B89" s="89"/>
+      <c r="C89" s="89"/>
       <c r="D89" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E89" s="86"/>
-      <c r="F89" s="89"/>
+      <c r="E89" s="95"/>
+      <c r="F89" s="92"/>
       <c r="G89" s="29" t="s">
         <v>161</v>
       </c>
@@ -6534,14 +6698,16 @@
       <c r="L89" s="11"/>
     </row>
     <row r="90" spans="1:12" ht="15">
-      <c r="A90" s="12"/>
-      <c r="B90" s="93"/>
-      <c r="C90" s="93"/>
+      <c r="A90" s="12">
+        <v>86</v>
+      </c>
+      <c r="B90" s="90"/>
+      <c r="C90" s="90"/>
       <c r="D90" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E90" s="87"/>
-      <c r="F90" s="90"/>
+      <c r="E90" s="96"/>
+      <c r="F90" s="93"/>
       <c r="G90" s="30" t="s">
         <v>172</v>
       </c>
@@ -6552,24 +6718,26 @@
       <c r="L90" s="11"/>
     </row>
     <row r="91" spans="1:12" ht="30">
-      <c r="A91" s="12"/>
-      <c r="B91" s="91" t="s">
-        <v>256</v>
-      </c>
-      <c r="C91" s="91" t="s">
+      <c r="A91" s="12">
+        <v>87</v>
+      </c>
+      <c r="B91" s="88" t="s">
+        <v>255</v>
+      </c>
+      <c r="C91" s="88" t="s">
         <v>150</v>
       </c>
       <c r="D91" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E91" s="85" t="s">
+      <c r="E91" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F91" s="88" t="s">
-        <v>263</v>
+      <c r="F91" s="91" t="s">
+        <v>262</v>
       </c>
       <c r="G91" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H91" s="62"/>
       <c r="I91" s="12"/>
@@ -6578,16 +6746,18 @@
       <c r="L91" s="11"/>
     </row>
     <row r="92" spans="1:12" ht="30">
-      <c r="A92" s="12"/>
-      <c r="B92" s="92"/>
-      <c r="C92" s="92"/>
+      <c r="A92" s="84">
+        <v>88</v>
+      </c>
+      <c r="B92" s="89"/>
+      <c r="C92" s="89"/>
       <c r="D92" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E92" s="86"/>
-      <c r="F92" s="89"/>
+      <c r="E92" s="95"/>
+      <c r="F92" s="92"/>
       <c r="G92" s="30" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="H92" s="62"/>
       <c r="I92" s="12"/>
@@ -6596,16 +6766,18 @@
       <c r="L92" s="11"/>
     </row>
     <row r="93" spans="1:12" ht="30">
-      <c r="A93" s="12"/>
-      <c r="B93" s="92"/>
-      <c r="C93" s="92"/>
+      <c r="A93" s="12">
+        <v>89</v>
+      </c>
+      <c r="B93" s="89"/>
+      <c r="C93" s="89"/>
       <c r="D93" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E93" s="86"/>
-      <c r="F93" s="89"/>
+      <c r="E93" s="95"/>
+      <c r="F93" s="92"/>
       <c r="G93" s="30" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="H93" s="62"/>
       <c r="I93" s="12"/>
@@ -6614,16 +6786,18 @@
       <c r="L93" s="11"/>
     </row>
     <row r="94" spans="1:12" ht="30">
-      <c r="A94" s="12"/>
-      <c r="B94" s="92"/>
-      <c r="C94" s="92"/>
+      <c r="A94" s="12">
+        <v>90</v>
+      </c>
+      <c r="B94" s="89"/>
+      <c r="C94" s="89"/>
       <c r="D94" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E94" s="86"/>
-      <c r="F94" s="89"/>
+      <c r="E94" s="95"/>
+      <c r="F94" s="92"/>
       <c r="G94" s="30" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H94" s="62"/>
       <c r="I94" s="12"/>
@@ -6632,16 +6806,18 @@
       <c r="L94" s="11"/>
     </row>
     <row r="95" spans="1:12" ht="30">
-      <c r="A95" s="12"/>
-      <c r="B95" s="92"/>
-      <c r="C95" s="92"/>
+      <c r="A95" s="84">
+        <v>91</v>
+      </c>
+      <c r="B95" s="89"/>
+      <c r="C95" s="89"/>
       <c r="D95" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E95" s="86"/>
-      <c r="F95" s="89"/>
+      <c r="E95" s="95"/>
+      <c r="F95" s="92"/>
       <c r="G95" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H95" s="62"/>
       <c r="I95" s="12"/>
@@ -6650,14 +6826,16 @@
       <c r="L95" s="11"/>
     </row>
     <row r="96" spans="1:12" ht="15">
-      <c r="A96" s="12"/>
-      <c r="B96" s="93"/>
-      <c r="C96" s="93"/>
+      <c r="A96" s="12">
+        <v>92</v>
+      </c>
+      <c r="B96" s="90"/>
+      <c r="C96" s="90"/>
       <c r="D96" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E96" s="87"/>
-      <c r="F96" s="90"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="93"/>
       <c r="G96" s="29" t="s">
         <v>93</v>
       </c>
@@ -6668,20 +6846,22 @@
       <c r="L96" s="11"/>
     </row>
     <row r="97" spans="1:12" ht="30">
-      <c r="A97" s="12"/>
-      <c r="B97" s="91" t="s">
+      <c r="A97" s="12">
+        <v>93</v>
+      </c>
+      <c r="B97" s="88" t="s">
         <v>162</v>
       </c>
-      <c r="C97" s="91" t="s">
+      <c r="C97" s="88" t="s">
         <v>163</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E97" s="94" t="s">
+      <c r="E97" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F97" s="88" t="s">
+      <c r="F97" s="91" t="s">
         <v>164</v>
       </c>
       <c r="G97" s="30" t="s">
@@ -6694,14 +6874,16 @@
       <c r="L97" s="11"/>
     </row>
     <row r="98" spans="1:12" ht="30">
-      <c r="A98" s="12"/>
-      <c r="B98" s="92"/>
-      <c r="C98" s="92"/>
+      <c r="A98" s="84">
+        <v>94</v>
+      </c>
+      <c r="B98" s="89"/>
+      <c r="C98" s="89"/>
       <c r="D98" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E98" s="95"/>
-      <c r="F98" s="89"/>
+      <c r="E98" s="86"/>
+      <c r="F98" s="92"/>
       <c r="G98" s="35" t="s">
         <v>139</v>
       </c>
@@ -6712,14 +6894,16 @@
       <c r="L98" s="11"/>
     </row>
     <row r="99" spans="1:12" ht="30">
-      <c r="A99" s="12"/>
-      <c r="B99" s="93"/>
-      <c r="C99" s="93"/>
+      <c r="A99" s="12">
+        <v>95</v>
+      </c>
+      <c r="B99" s="90"/>
+      <c r="C99" s="90"/>
       <c r="D99" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E99" s="96"/>
-      <c r="F99" s="90"/>
+      <c r="E99" s="87"/>
+      <c r="F99" s="93"/>
       <c r="G99" s="35" t="s">
         <v>141</v>
       </c>
@@ -6730,20 +6914,22 @@
       <c r="L99" s="11"/>
     </row>
     <row r="100" spans="1:12" ht="30">
-      <c r="A100" s="12"/>
-      <c r="B100" s="91" t="s">
+      <c r="A100" s="12">
+        <v>96</v>
+      </c>
+      <c r="B100" s="88" t="s">
         <v>165</v>
       </c>
-      <c r="C100" s="91" t="s">
+      <c r="C100" s="88" t="s">
         <v>166</v>
       </c>
       <c r="D100" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E100" s="94" t="s">
+      <c r="E100" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F100" s="88" t="s">
+      <c r="F100" s="91" t="s">
         <v>167</v>
       </c>
       <c r="G100" s="30" t="s">
@@ -6756,14 +6942,16 @@
       <c r="L100" s="11"/>
     </row>
     <row r="101" spans="1:12" ht="30">
-      <c r="A101" s="12"/>
-      <c r="B101" s="92"/>
-      <c r="C101" s="92"/>
+      <c r="A101" s="84">
+        <v>97</v>
+      </c>
+      <c r="B101" s="89"/>
+      <c r="C101" s="89"/>
       <c r="D101" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E101" s="95"/>
-      <c r="F101" s="89"/>
+      <c r="E101" s="86"/>
+      <c r="F101" s="92"/>
       <c r="G101" s="30" t="s">
         <v>143</v>
       </c>
@@ -6774,16 +6962,18 @@
       <c r="L101" s="11"/>
     </row>
     <row r="102" spans="1:12" ht="30">
-      <c r="A102" s="12"/>
-      <c r="B102" s="92"/>
-      <c r="C102" s="92"/>
+      <c r="A102" s="12">
+        <v>98</v>
+      </c>
+      <c r="B102" s="89"/>
+      <c r="C102" s="89"/>
       <c r="D102" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E102" s="95"/>
-      <c r="F102" s="89"/>
+      <c r="E102" s="86"/>
+      <c r="F102" s="92"/>
       <c r="G102" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="H102" s="12"/>
       <c r="I102" s="12"/>
@@ -6792,16 +6982,18 @@
       <c r="L102" s="11"/>
     </row>
     <row r="103" spans="1:12" ht="30">
-      <c r="A103" s="12"/>
-      <c r="B103" s="92"/>
-      <c r="C103" s="92"/>
+      <c r="A103" s="12">
+        <v>99</v>
+      </c>
+      <c r="B103" s="89"/>
+      <c r="C103" s="89"/>
       <c r="D103" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E103" s="95"/>
-      <c r="F103" s="89"/>
+      <c r="E103" s="86"/>
+      <c r="F103" s="92"/>
       <c r="G103" s="30" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="H103" s="12"/>
       <c r="I103" s="12"/>
@@ -6810,16 +7002,18 @@
       <c r="L103" s="11"/>
     </row>
     <row r="104" spans="1:12" ht="30">
-      <c r="A104" s="12"/>
-      <c r="B104" s="92"/>
-      <c r="C104" s="92"/>
+      <c r="A104" s="84">
+        <v>100</v>
+      </c>
+      <c r="B104" s="89"/>
+      <c r="C104" s="89"/>
       <c r="D104" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="E104" s="95"/>
-      <c r="F104" s="89"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="92"/>
       <c r="G104" s="30" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H104" s="12"/>
       <c r="I104" s="12"/>
@@ -6828,14 +7022,16 @@
       <c r="L104" s="11"/>
     </row>
     <row r="105" spans="1:12" ht="15">
-      <c r="A105" s="12"/>
-      <c r="B105" s="93"/>
-      <c r="C105" s="93"/>
+      <c r="A105" s="12">
+        <v>101</v>
+      </c>
+      <c r="B105" s="90"/>
+      <c r="C105" s="90"/>
       <c r="D105" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E105" s="96"/>
-      <c r="F105" s="90"/>
+      <c r="E105" s="87"/>
+      <c r="F105" s="93"/>
       <c r="G105" s="29" t="s">
         <v>93</v>
       </c>
@@ -6846,20 +7042,22 @@
       <c r="L105" s="11"/>
     </row>
     <row r="106" spans="1:12" ht="30">
-      <c r="A106" s="12"/>
-      <c r="B106" s="91" t="s">
+      <c r="A106" s="12">
+        <v>102</v>
+      </c>
+      <c r="B106" s="88" t="s">
         <v>168</v>
       </c>
-      <c r="C106" s="91" t="s">
+      <c r="C106" s="88" t="s">
         <v>169</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E106" s="94" t="s">
+      <c r="E106" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F106" s="88" t="s">
+      <c r="F106" s="91" t="s">
         <v>173</v>
       </c>
       <c r="G106" s="29" t="s">
@@ -6872,16 +7070,18 @@
       <c r="L106" s="11"/>
     </row>
     <row r="107" spans="1:12" ht="30">
-      <c r="A107" s="12"/>
-      <c r="B107" s="92"/>
-      <c r="C107" s="92"/>
+      <c r="A107" s="84">
+        <v>103</v>
+      </c>
+      <c r="B107" s="89"/>
+      <c r="C107" s="89"/>
       <c r="D107" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E107" s="95"/>
-      <c r="F107" s="89"/>
+      <c r="E107" s="86"/>
+      <c r="F107" s="92"/>
       <c r="G107" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H107" s="12"/>
       <c r="I107" s="12"/>
@@ -6890,14 +7090,16 @@
       <c r="L107" s="11"/>
     </row>
     <row r="108" spans="1:12" ht="15">
-      <c r="A108" s="12"/>
-      <c r="B108" s="93"/>
-      <c r="C108" s="93"/>
+      <c r="A108" s="12">
+        <v>104</v>
+      </c>
+      <c r="B108" s="90"/>
+      <c r="C108" s="90"/>
       <c r="D108" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E108" s="96"/>
-      <c r="F108" s="90"/>
+      <c r="E108" s="87"/>
+      <c r="F108" s="93"/>
       <c r="G108" s="29" t="s">
         <v>161</v>
       </c>
@@ -6908,20 +7110,22 @@
       <c r="L108" s="11"/>
     </row>
     <row r="109" spans="1:12" ht="30">
-      <c r="A109" s="12"/>
-      <c r="B109" s="91" t="s">
+      <c r="A109" s="12">
+        <v>105</v>
+      </c>
+      <c r="B109" s="88" t="s">
         <v>175</v>
       </c>
-      <c r="C109" s="91" t="s">
+      <c r="C109" s="88" t="s">
         <v>176</v>
       </c>
       <c r="D109" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E109" s="94" t="s">
+      <c r="E109" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F109" s="88" t="s">
+      <c r="F109" s="91" t="s">
         <v>177</v>
       </c>
       <c r="G109" s="30" t="s">
@@ -6934,14 +7138,16 @@
       <c r="L109" s="11"/>
     </row>
     <row r="110" spans="1:12" ht="30">
-      <c r="A110" s="12"/>
-      <c r="B110" s="92"/>
-      <c r="C110" s="92"/>
+      <c r="A110" s="84">
+        <v>106</v>
+      </c>
+      <c r="B110" s="89"/>
+      <c r="C110" s="89"/>
       <c r="D110" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E110" s="95"/>
-      <c r="F110" s="89"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="92"/>
       <c r="G110" s="35" t="s">
         <v>139</v>
       </c>
@@ -6952,14 +7158,16 @@
       <c r="L110" s="11"/>
     </row>
     <row r="111" spans="1:12" ht="30">
-      <c r="A111" s="12"/>
-      <c r="B111" s="93"/>
-      <c r="C111" s="93"/>
+      <c r="A111" s="12">
+        <v>107</v>
+      </c>
+      <c r="B111" s="90"/>
+      <c r="C111" s="90"/>
       <c r="D111" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E111" s="96"/>
-      <c r="F111" s="90"/>
+      <c r="E111" s="87"/>
+      <c r="F111" s="93"/>
       <c r="G111" s="35" t="s">
         <v>141</v>
       </c>
@@ -6970,21 +7178,23 @@
       <c r="L111" s="11"/>
     </row>
     <row r="112" spans="1:12" ht="15">
-      <c r="A112" s="12"/>
-      <c r="B112" s="91" t="s">
+      <c r="A112" s="12">
+        <v>108</v>
+      </c>
+      <c r="B112" s="88" t="s">
         <v>178</v>
       </c>
-      <c r="C112" s="88" t="s">
+      <c r="C112" s="91" t="s">
         <v>179</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="85" t="s">
+      <c r="E112" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="88" t="s">
-        <v>213</v>
+      <c r="F112" s="91" t="s">
+        <v>212</v>
       </c>
       <c r="G112" s="30" t="s">
         <v>124</v>
@@ -6996,14 +7206,16 @@
       <c r="L112" s="11"/>
     </row>
     <row r="113" spans="1:12" ht="15">
-      <c r="A113" s="12"/>
-      <c r="B113" s="92"/>
-      <c r="C113" s="89"/>
+      <c r="A113" s="84">
+        <v>109</v>
+      </c>
+      <c r="B113" s="89"/>
+      <c r="C113" s="92"/>
       <c r="D113" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E113" s="86"/>
-      <c r="F113" s="89"/>
+      <c r="E113" s="95"/>
+      <c r="F113" s="92"/>
       <c r="G113" s="30" t="s">
         <v>124</v>
       </c>
@@ -7014,14 +7226,16 @@
       <c r="L113" s="11"/>
     </row>
     <row r="114" spans="1:12" ht="30">
-      <c r="A114" s="12"/>
-      <c r="B114" s="92"/>
-      <c r="C114" s="89"/>
+      <c r="A114" s="12">
+        <v>110</v>
+      </c>
+      <c r="B114" s="89"/>
+      <c r="C114" s="92"/>
       <c r="D114" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E114" s="86"/>
-      <c r="F114" s="89"/>
+      <c r="E114" s="95"/>
+      <c r="F114" s="92"/>
       <c r="G114" s="30" t="s">
         <v>180</v>
       </c>
@@ -7032,14 +7246,16 @@
       <c r="L114" s="11"/>
     </row>
     <row r="115" spans="1:12" ht="30">
-      <c r="A115" s="12"/>
-      <c r="B115" s="92"/>
-      <c r="C115" s="89"/>
+      <c r="A115" s="12">
+        <v>111</v>
+      </c>
+      <c r="B115" s="89"/>
+      <c r="C115" s="92"/>
       <c r="D115" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E115" s="86"/>
-      <c r="F115" s="89"/>
+      <c r="E115" s="95"/>
+      <c r="F115" s="92"/>
       <c r="G115" s="30" t="s">
         <v>181</v>
       </c>
@@ -7050,14 +7266,16 @@
       <c r="L115" s="11"/>
     </row>
     <row r="116" spans="1:12" ht="15">
-      <c r="A116" s="12"/>
-      <c r="B116" s="93"/>
-      <c r="C116" s="90"/>
+      <c r="A116" s="84">
+        <v>112</v>
+      </c>
+      <c r="B116" s="90"/>
+      <c r="C116" s="93"/>
       <c r="D116" s="23" t="s">
         <v>110</v>
       </c>
-      <c r="E116" s="87"/>
-      <c r="F116" s="90"/>
+      <c r="E116" s="96"/>
+      <c r="F116" s="93"/>
       <c r="G116" s="30" t="s">
         <v>111</v>
       </c>
@@ -7068,20 +7286,22 @@
       <c r="L116" s="11"/>
     </row>
     <row r="117" spans="1:12" ht="30">
-      <c r="A117" s="12"/>
-      <c r="B117" s="91" t="s">
+      <c r="A117" s="12">
+        <v>113</v>
+      </c>
+      <c r="B117" s="88" t="s">
         <v>182</v>
       </c>
-      <c r="C117" s="88" t="s">
+      <c r="C117" s="91" t="s">
         <v>179</v>
       </c>
       <c r="D117" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E117" s="85" t="s">
+      <c r="E117" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F117" s="88" t="s">
+      <c r="F117" s="91" t="s">
         <v>184</v>
       </c>
       <c r="G117" s="30" t="s">
@@ -7094,14 +7314,16 @@
       <c r="L117" s="11"/>
     </row>
     <row r="118" spans="1:12" ht="30">
-      <c r="A118" s="12"/>
-      <c r="B118" s="92"/>
-      <c r="C118" s="89"/>
+      <c r="A118" s="12">
+        <v>114</v>
+      </c>
+      <c r="B118" s="89"/>
+      <c r="C118" s="92"/>
       <c r="D118" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E118" s="86"/>
-      <c r="F118" s="89"/>
+      <c r="E118" s="95"/>
+      <c r="F118" s="92"/>
       <c r="G118" s="30" t="s">
         <v>128</v>
       </c>
@@ -7112,14 +7334,16 @@
       <c r="L118" s="11"/>
     </row>
     <row r="119" spans="1:12" ht="30">
-      <c r="A119" s="12"/>
-      <c r="B119" s="93"/>
-      <c r="C119" s="89"/>
+      <c r="A119" s="84">
+        <v>115</v>
+      </c>
+      <c r="B119" s="90"/>
+      <c r="C119" s="92"/>
       <c r="D119" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E119" s="87"/>
-      <c r="F119" s="90"/>
+      <c r="E119" s="96"/>
+      <c r="F119" s="93"/>
       <c r="G119" s="30" t="s">
         <v>129</v>
       </c>
@@ -7130,20 +7354,22 @@
       <c r="L119" s="11"/>
     </row>
     <row r="120" spans="1:12" ht="30">
-      <c r="A120" s="12"/>
-      <c r="B120" s="91" t="s">
+      <c r="A120" s="12">
+        <v>116</v>
+      </c>
+      <c r="B120" s="88" t="s">
         <v>185</v>
       </c>
-      <c r="C120" s="91" t="s">
+      <c r="C120" s="88" t="s">
         <v>186</v>
       </c>
       <c r="D120" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E120" s="85" t="s">
+      <c r="E120" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F120" s="88" t="s">
+      <c r="F120" s="91" t="s">
         <v>183</v>
       </c>
       <c r="G120" s="30" t="s">
@@ -7156,14 +7382,16 @@
       <c r="L120" s="11"/>
     </row>
     <row r="121" spans="1:12" ht="30">
-      <c r="A121" s="12"/>
-      <c r="B121" s="92"/>
-      <c r="C121" s="92"/>
+      <c r="A121" s="12">
+        <v>117</v>
+      </c>
+      <c r="B121" s="89"/>
+      <c r="C121" s="89"/>
       <c r="D121" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E121" s="86"/>
-      <c r="F121" s="89"/>
+      <c r="E121" s="95"/>
+      <c r="F121" s="92"/>
       <c r="G121" s="35" t="s">
         <v>139</v>
       </c>
@@ -7174,14 +7402,16 @@
       <c r="L121" s="11"/>
     </row>
     <row r="122" spans="1:12" ht="30">
-      <c r="A122" s="12"/>
-      <c r="B122" s="93"/>
-      <c r="C122" s="93"/>
+      <c r="A122" s="84">
+        <v>118</v>
+      </c>
+      <c r="B122" s="90"/>
+      <c r="C122" s="90"/>
       <c r="D122" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E122" s="87"/>
-      <c r="F122" s="90"/>
+      <c r="E122" s="96"/>
+      <c r="F122" s="93"/>
       <c r="G122" s="35" t="s">
         <v>141</v>
       </c>
@@ -7192,20 +7422,22 @@
       <c r="L122" s="11"/>
     </row>
     <row r="123" spans="1:12" ht="30">
-      <c r="A123" s="12"/>
-      <c r="B123" s="91" t="s">
+      <c r="A123" s="12">
+        <v>119</v>
+      </c>
+      <c r="B123" s="88" t="s">
         <v>187</v>
       </c>
-      <c r="C123" s="91" t="s">
+      <c r="C123" s="88" t="s">
         <v>188</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E123" s="85" t="s">
+      <c r="E123" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F123" s="88" t="s">
+      <c r="F123" s="91" t="s">
         <v>189</v>
       </c>
       <c r="G123" s="30" t="s">
@@ -7218,14 +7450,16 @@
       <c r="L123" s="11"/>
     </row>
     <row r="124" spans="1:12" ht="30">
-      <c r="A124" s="12"/>
-      <c r="B124" s="92"/>
-      <c r="C124" s="92"/>
+      <c r="A124" s="12">
+        <v>120</v>
+      </c>
+      <c r="B124" s="89"/>
+      <c r="C124" s="89"/>
       <c r="D124" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E124" s="86"/>
-      <c r="F124" s="89"/>
+      <c r="E124" s="95"/>
+      <c r="F124" s="92"/>
       <c r="G124" s="30" t="s">
         <v>143</v>
       </c>
@@ -7236,14 +7470,16 @@
       <c r="L124" s="11"/>
     </row>
     <row r="125" spans="1:12" ht="30">
-      <c r="A125" s="12"/>
-      <c r="B125" s="92"/>
-      <c r="C125" s="92"/>
+      <c r="A125" s="84">
+        <v>121</v>
+      </c>
+      <c r="B125" s="89"/>
+      <c r="C125" s="89"/>
       <c r="D125" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E125" s="86"/>
-      <c r="F125" s="89"/>
+      <c r="E125" s="95"/>
+      <c r="F125" s="92"/>
       <c r="G125" s="30" t="s">
         <v>144</v>
       </c>
@@ -7254,14 +7490,16 @@
       <c r="L125" s="11"/>
     </row>
     <row r="126" spans="1:12" ht="30">
-      <c r="A126" s="12"/>
-      <c r="B126" s="92"/>
-      <c r="C126" s="92"/>
+      <c r="A126" s="12">
+        <v>122</v>
+      </c>
+      <c r="B126" s="89"/>
+      <c r="C126" s="89"/>
       <c r="D126" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E126" s="86"/>
-      <c r="F126" s="89"/>
+      <c r="E126" s="95"/>
+      <c r="F126" s="92"/>
       <c r="G126" s="30" t="s">
         <v>145</v>
       </c>
@@ -7272,14 +7510,16 @@
       <c r="L126" s="11"/>
     </row>
     <row r="127" spans="1:12" ht="15">
-      <c r="A127" s="12"/>
-      <c r="B127" s="92"/>
-      <c r="C127" s="92"/>
+      <c r="A127" s="12">
+        <v>123</v>
+      </c>
+      <c r="B127" s="89"/>
+      <c r="C127" s="89"/>
       <c r="D127" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="E127" s="86"/>
-      <c r="F127" s="89"/>
+      <c r="E127" s="95"/>
+      <c r="F127" s="92"/>
       <c r="G127" s="35" t="s">
         <v>147</v>
       </c>
@@ -7290,14 +7530,16 @@
       <c r="L127" s="11"/>
     </row>
     <row r="128" spans="1:12" ht="15">
-      <c r="A128" s="12"/>
-      <c r="B128" s="92"/>
-      <c r="C128" s="92"/>
+      <c r="A128" s="84">
+        <v>124</v>
+      </c>
+      <c r="B128" s="89"/>
+      <c r="C128" s="89"/>
       <c r="D128" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="86"/>
-      <c r="F128" s="89"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="92"/>
       <c r="G128" s="35" t="s">
         <v>148</v>
       </c>
@@ -7308,14 +7550,16 @@
       <c r="L128" s="11"/>
     </row>
     <row r="129" spans="1:12" ht="30">
-      <c r="A129" s="12"/>
-      <c r="B129" s="93"/>
-      <c r="C129" s="93"/>
+      <c r="A129" s="12">
+        <v>125</v>
+      </c>
+      <c r="B129" s="90"/>
+      <c r="C129" s="90"/>
       <c r="D129" s="29" t="s">
         <v>138</v>
       </c>
-      <c r="E129" s="87"/>
-      <c r="F129" s="90"/>
+      <c r="E129" s="96"/>
+      <c r="F129" s="93"/>
       <c r="G129" s="35" t="s">
         <v>139</v>
       </c>
@@ -7326,20 +7570,22 @@
       <c r="L129" s="11"/>
     </row>
     <row r="130" spans="1:12" ht="30">
-      <c r="A130" s="12"/>
-      <c r="B130" s="91" t="s">
+      <c r="A130" s="12">
+        <v>126</v>
+      </c>
+      <c r="B130" s="88" t="s">
         <v>190</v>
       </c>
-      <c r="C130" s="91" t="s">
+      <c r="C130" s="88" t="s">
         <v>191</v>
       </c>
       <c r="D130" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E130" s="85" t="s">
+      <c r="E130" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F130" s="88" t="s">
+      <c r="F130" s="91" t="s">
         <v>192</v>
       </c>
       <c r="G130" s="30" t="s">
@@ -7352,14 +7598,16 @@
       <c r="L130" s="11"/>
     </row>
     <row r="131" spans="1:12" ht="30">
-      <c r="A131" s="12"/>
-      <c r="B131" s="92"/>
-      <c r="C131" s="92"/>
+      <c r="A131" s="84">
+        <v>127</v>
+      </c>
+      <c r="B131" s="89"/>
+      <c r="C131" s="89"/>
       <c r="D131" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E131" s="86"/>
-      <c r="F131" s="89"/>
+      <c r="E131" s="95"/>
+      <c r="F131" s="92"/>
       <c r="G131" s="30" t="s">
         <v>143</v>
       </c>
@@ -7370,14 +7618,16 @@
       <c r="L131" s="11"/>
     </row>
     <row r="132" spans="1:12" ht="30">
-      <c r="A132" s="12"/>
-      <c r="B132" s="92"/>
-      <c r="C132" s="92"/>
+      <c r="A132" s="12">
+        <v>128</v>
+      </c>
+      <c r="B132" s="89"/>
+      <c r="C132" s="89"/>
       <c r="D132" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E132" s="86"/>
-      <c r="F132" s="89"/>
+      <c r="E132" s="95"/>
+      <c r="F132" s="92"/>
       <c r="G132" s="30" t="s">
         <v>144</v>
       </c>
@@ -7388,14 +7638,16 @@
       <c r="L132" s="11"/>
     </row>
     <row r="133" spans="1:12" ht="30">
-      <c r="A133" s="12"/>
-      <c r="B133" s="92"/>
-      <c r="C133" s="92"/>
+      <c r="A133" s="12">
+        <v>129</v>
+      </c>
+      <c r="B133" s="89"/>
+      <c r="C133" s="89"/>
       <c r="D133" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E133" s="86"/>
-      <c r="F133" s="89"/>
+      <c r="E133" s="95"/>
+      <c r="F133" s="92"/>
       <c r="G133" s="30" t="s">
         <v>145</v>
       </c>
@@ -7406,14 +7658,16 @@
       <c r="L133" s="11"/>
     </row>
     <row r="134" spans="1:12" ht="15">
-      <c r="A134" s="12"/>
-      <c r="B134" s="93"/>
-      <c r="C134" s="93"/>
+      <c r="A134" s="84">
+        <v>130</v>
+      </c>
+      <c r="B134" s="90"/>
+      <c r="C134" s="90"/>
       <c r="D134" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E134" s="87"/>
-      <c r="F134" s="90"/>
+      <c r="E134" s="96"/>
+      <c r="F134" s="93"/>
       <c r="G134" s="29" t="s">
         <v>93</v>
       </c>
@@ -7424,20 +7678,22 @@
       <c r="L134" s="11"/>
     </row>
     <row r="135" spans="1:12" ht="30">
-      <c r="A135" s="12"/>
-      <c r="B135" s="91" t="s">
+      <c r="A135" s="12">
+        <v>131</v>
+      </c>
+      <c r="B135" s="88" t="s">
         <v>193</v>
       </c>
-      <c r="C135" s="91" t="s">
+      <c r="C135" s="88" t="s">
         <v>191</v>
       </c>
       <c r="D135" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E135" s="85" t="s">
+      <c r="E135" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F135" s="88" t="s">
+      <c r="F135" s="91" t="s">
         <v>195</v>
       </c>
       <c r="G135" s="30" t="s">
@@ -7450,14 +7706,16 @@
       <c r="L135" s="11"/>
     </row>
     <row r="136" spans="1:12" ht="30">
-      <c r="A136" s="12"/>
-      <c r="B136" s="92"/>
-      <c r="C136" s="92"/>
+      <c r="A136" s="12">
+        <v>132</v>
+      </c>
+      <c r="B136" s="89"/>
+      <c r="C136" s="89"/>
       <c r="D136" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E136" s="86"/>
-      <c r="F136" s="89"/>
+      <c r="E136" s="95"/>
+      <c r="F136" s="92"/>
       <c r="G136" s="30" t="s">
         <v>128</v>
       </c>
@@ -7468,14 +7726,16 @@
       <c r="L136" s="11"/>
     </row>
     <row r="137" spans="1:12" ht="30">
-      <c r="A137" s="12"/>
-      <c r="B137" s="92"/>
-      <c r="C137" s="92"/>
+      <c r="A137" s="84">
+        <v>133</v>
+      </c>
+      <c r="B137" s="89"/>
+      <c r="C137" s="89"/>
       <c r="D137" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E137" s="87"/>
-      <c r="F137" s="90"/>
+      <c r="E137" s="96"/>
+      <c r="F137" s="93"/>
       <c r="G137" s="30" t="s">
         <v>129</v>
       </c>
@@ -7486,23 +7746,25 @@
       <c r="L137" s="11"/>
     </row>
     <row r="138" spans="1:12" ht="15">
-      <c r="A138" s="12"/>
-      <c r="B138" s="91" t="s">
+      <c r="A138" s="12">
+        <v>134</v>
+      </c>
+      <c r="B138" s="88" t="s">
         <v>196</v>
       </c>
-      <c r="C138" s="91" t="s">
+      <c r="C138" s="88" t="s">
         <v>197</v>
       </c>
       <c r="D138" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E138" s="85" t="s">
+      <c r="E138" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="88" t="s">
+      <c r="F138" s="91" t="s">
         <v>194</v>
       </c>
-      <c r="G138" s="91" t="s">
+      <c r="G138" s="88" t="s">
         <v>198</v>
       </c>
       <c r="H138" s="12"/>
@@ -7512,15 +7774,17 @@
       <c r="L138" s="11"/>
     </row>
     <row r="139" spans="1:12" ht="15">
-      <c r="A139" s="12"/>
-      <c r="B139" s="92"/>
-      <c r="C139" s="92"/>
+      <c r="A139" s="12">
+        <v>135</v>
+      </c>
+      <c r="B139" s="89"/>
+      <c r="C139" s="89"/>
       <c r="D139" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E139" s="86"/>
-      <c r="F139" s="89"/>
-      <c r="G139" s="93"/>
+      <c r="E139" s="95"/>
+      <c r="F139" s="92"/>
+      <c r="G139" s="90"/>
       <c r="H139" s="12"/>
       <c r="I139" s="12"/>
       <c r="J139" s="28"/>
@@ -7528,14 +7792,16 @@
       <c r="L139" s="11"/>
     </row>
     <row r="140" spans="1:12" ht="15">
-      <c r="A140" s="12"/>
-      <c r="B140" s="92"/>
-      <c r="C140" s="92"/>
+      <c r="A140" s="84">
+        <v>136</v>
+      </c>
+      <c r="B140" s="89"/>
+      <c r="C140" s="89"/>
       <c r="D140" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E140" s="86"/>
-      <c r="F140" s="89"/>
+      <c r="E140" s="95"/>
+      <c r="F140" s="92"/>
       <c r="G140" s="29" t="s">
         <v>199</v>
       </c>
@@ -7546,14 +7812,16 @@
       <c r="L140" s="11"/>
     </row>
     <row r="141" spans="1:12" ht="15">
-      <c r="A141" s="12"/>
-      <c r="B141" s="92"/>
-      <c r="C141" s="92"/>
+      <c r="A141" s="12">
+        <v>137</v>
+      </c>
+      <c r="B141" s="89"/>
+      <c r="C141" s="89"/>
       <c r="D141" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E141" s="86"/>
-      <c r="F141" s="89"/>
+      <c r="E141" s="95"/>
+      <c r="F141" s="92"/>
       <c r="G141" s="29" t="s">
         <v>200</v>
       </c>
@@ -7564,14 +7832,16 @@
       <c r="L141" s="11"/>
     </row>
     <row r="142" spans="1:12" ht="15">
-      <c r="A142" s="12"/>
-      <c r="B142" s="92"/>
-      <c r="C142" s="92"/>
+      <c r="A142" s="12">
+        <v>138</v>
+      </c>
+      <c r="B142" s="89"/>
+      <c r="C142" s="89"/>
       <c r="D142" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E142" s="86"/>
-      <c r="F142" s="89"/>
+      <c r="E142" s="95"/>
+      <c r="F142" s="92"/>
       <c r="G142" s="29" t="s">
         <v>161</v>
       </c>
@@ -7582,14 +7852,16 @@
       <c r="L142" s="11"/>
     </row>
     <row r="143" spans="1:12" ht="15">
-      <c r="A143" s="12"/>
-      <c r="B143" s="93"/>
-      <c r="C143" s="93"/>
+      <c r="A143" s="84">
+        <v>139</v>
+      </c>
+      <c r="B143" s="90"/>
+      <c r="C143" s="90"/>
       <c r="D143" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E143" s="87"/>
-      <c r="F143" s="90"/>
+      <c r="E143" s="96"/>
+      <c r="F143" s="93"/>
       <c r="G143" s="30" t="s">
         <v>172</v>
       </c>
@@ -7600,24 +7872,26 @@
       <c r="L143" s="11"/>
     </row>
     <row r="144" spans="1:12" ht="30">
-      <c r="A144" s="12"/>
-      <c r="B144" s="91" t="s">
-        <v>249</v>
-      </c>
-      <c r="C144" s="91" t="s">
+      <c r="A144" s="12">
+        <v>140</v>
+      </c>
+      <c r="B144" s="88" t="s">
+        <v>248</v>
+      </c>
+      <c r="C144" s="88" t="s">
         <v>191</v>
       </c>
       <c r="D144" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E144" s="85" t="s">
+      <c r="E144" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="F144" s="88" t="s">
-        <v>267</v>
+      <c r="F144" s="91" t="s">
+        <v>266</v>
       </c>
       <c r="G144" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H144" s="12"/>
       <c r="I144" s="12"/>
@@ -7626,16 +7900,18 @@
       <c r="L144" s="11"/>
     </row>
     <row r="145" spans="1:12" ht="30">
-      <c r="A145" s="12"/>
-      <c r="B145" s="92"/>
-      <c r="C145" s="92"/>
+      <c r="A145" s="12">
+        <v>141</v>
+      </c>
+      <c r="B145" s="89"/>
+      <c r="C145" s="89"/>
       <c r="D145" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E145" s="86"/>
-      <c r="F145" s="89"/>
+      <c r="E145" s="95"/>
+      <c r="F145" s="92"/>
       <c r="G145" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H145" s="12"/>
       <c r="I145" s="12"/>
@@ -7644,16 +7920,18 @@
       <c r="L145" s="11"/>
     </row>
     <row r="146" spans="1:12" ht="30">
-      <c r="A146" s="12"/>
-      <c r="B146" s="92"/>
-      <c r="C146" s="92"/>
+      <c r="A146" s="84">
+        <v>142</v>
+      </c>
+      <c r="B146" s="89"/>
+      <c r="C146" s="89"/>
       <c r="D146" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E146" s="86"/>
-      <c r="F146" s="89"/>
+      <c r="E146" s="95"/>
+      <c r="F146" s="92"/>
       <c r="G146" s="30" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H146" s="12"/>
       <c r="I146" s="12"/>
@@ -7662,16 +7940,18 @@
       <c r="L146" s="11"/>
     </row>
     <row r="147" spans="1:12" ht="30">
-      <c r="A147" s="12"/>
-      <c r="B147" s="92"/>
-      <c r="C147" s="92"/>
+      <c r="A147" s="12">
+        <v>143</v>
+      </c>
+      <c r="B147" s="89"/>
+      <c r="C147" s="89"/>
       <c r="D147" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E147" s="86"/>
-      <c r="F147" s="89"/>
+      <c r="E147" s="95"/>
+      <c r="F147" s="92"/>
       <c r="G147" s="30" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H147" s="12"/>
       <c r="I147" s="12"/>
@@ -7680,14 +7960,16 @@
       <c r="L147" s="11"/>
     </row>
     <row r="148" spans="1:12" ht="15">
-      <c r="A148" s="12"/>
-      <c r="B148" s="93"/>
-      <c r="C148" s="93"/>
+      <c r="A148" s="12">
+        <v>144</v>
+      </c>
+      <c r="B148" s="90"/>
+      <c r="C148" s="90"/>
       <c r="D148" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E148" s="87"/>
-      <c r="F148" s="90"/>
+      <c r="E148" s="96"/>
+      <c r="F148" s="93"/>
       <c r="G148" s="29" t="s">
         <v>93</v>
       </c>
@@ -7698,20 +7980,22 @@
       <c r="L148" s="11"/>
     </row>
     <row r="149" spans="1:12" ht="30">
-      <c r="A149" s="12"/>
-      <c r="B149" s="91" t="s">
+      <c r="A149" s="84">
+        <v>145</v>
+      </c>
+      <c r="B149" s="88" t="s">
         <v>201</v>
       </c>
-      <c r="C149" s="91" t="s">
+      <c r="C149" s="88" t="s">
         <v>202</v>
       </c>
       <c r="D149" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E149" s="94" t="s">
+      <c r="E149" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F149" s="88" t="s">
+      <c r="F149" s="91" t="s">
         <v>203</v>
       </c>
       <c r="G149" s="30" t="s">
@@ -7724,14 +8008,16 @@
       <c r="L149" s="11"/>
     </row>
     <row r="150" spans="1:12" ht="30">
-      <c r="A150" s="12"/>
-      <c r="B150" s="92"/>
-      <c r="C150" s="92"/>
+      <c r="A150" s="12">
+        <v>146</v>
+      </c>
+      <c r="B150" s="89"/>
+      <c r="C150" s="89"/>
       <c r="D150" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E150" s="95"/>
-      <c r="F150" s="89"/>
+      <c r="E150" s="86"/>
+      <c r="F150" s="92"/>
       <c r="G150" s="35" t="s">
         <v>139</v>
       </c>
@@ -7742,14 +8028,16 @@
       <c r="L150" s="11"/>
     </row>
     <row r="151" spans="1:12" ht="30">
-      <c r="A151" s="12"/>
-      <c r="B151" s="93"/>
-      <c r="C151" s="93"/>
+      <c r="A151" s="12">
+        <v>147</v>
+      </c>
+      <c r="B151" s="90"/>
+      <c r="C151" s="90"/>
       <c r="D151" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E151" s="96"/>
-      <c r="F151" s="90"/>
+      <c r="E151" s="87"/>
+      <c r="F151" s="93"/>
       <c r="G151" s="35" t="s">
         <v>141</v>
       </c>
@@ -7760,20 +8048,22 @@
       <c r="L151" s="11"/>
     </row>
     <row r="152" spans="1:12" ht="30">
-      <c r="A152" s="12"/>
-      <c r="B152" s="91" t="s">
+      <c r="A152" s="84">
+        <v>148</v>
+      </c>
+      <c r="B152" s="88" t="s">
         <v>204</v>
       </c>
-      <c r="C152" s="91" t="s">
+      <c r="C152" s="88" t="s">
         <v>205</v>
       </c>
       <c r="D152" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E152" s="94" t="s">
+      <c r="E152" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F152" s="88" t="s">
+      <c r="F152" s="91" t="s">
         <v>206</v>
       </c>
       <c r="G152" s="30" t="s">
@@ -7786,14 +8076,16 @@
       <c r="L152" s="11"/>
     </row>
     <row r="153" spans="1:12" ht="30">
-      <c r="A153" s="12"/>
-      <c r="B153" s="92"/>
-      <c r="C153" s="92"/>
+      <c r="A153" s="12">
+        <v>149</v>
+      </c>
+      <c r="B153" s="89"/>
+      <c r="C153" s="89"/>
       <c r="D153" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="E153" s="95"/>
-      <c r="F153" s="89"/>
+      <c r="E153" s="86"/>
+      <c r="F153" s="92"/>
       <c r="G153" s="30" t="s">
         <v>143</v>
       </c>
@@ -7804,14 +8096,16 @@
       <c r="L153" s="11"/>
     </row>
     <row r="154" spans="1:12" ht="30">
-      <c r="A154" s="12"/>
-      <c r="B154" s="92"/>
-      <c r="C154" s="92"/>
+      <c r="A154" s="12">
+        <v>150</v>
+      </c>
+      <c r="B154" s="89"/>
+      <c r="C154" s="89"/>
       <c r="D154" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="E154" s="95"/>
-      <c r="F154" s="89"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="92"/>
       <c r="G154" s="30" t="s">
         <v>144</v>
       </c>
@@ -7822,14 +8116,16 @@
       <c r="L154" s="11"/>
     </row>
     <row r="155" spans="1:12" ht="30">
-      <c r="A155" s="12"/>
-      <c r="B155" s="92"/>
-      <c r="C155" s="92"/>
+      <c r="A155" s="84">
+        <v>151</v>
+      </c>
+      <c r="B155" s="89"/>
+      <c r="C155" s="89"/>
       <c r="D155" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="E155" s="95"/>
-      <c r="F155" s="89"/>
+      <c r="E155" s="86"/>
+      <c r="F155" s="92"/>
       <c r="G155" s="30" t="s">
         <v>145</v>
       </c>
@@ -7840,14 +8136,16 @@
       <c r="L155" s="11"/>
     </row>
     <row r="156" spans="1:12" ht="15">
-      <c r="A156" s="12"/>
-      <c r="B156" s="93"/>
-      <c r="C156" s="93"/>
+      <c r="A156" s="12">
+        <v>152</v>
+      </c>
+      <c r="B156" s="90"/>
+      <c r="C156" s="90"/>
       <c r="D156" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="E156" s="96"/>
-      <c r="F156" s="90"/>
+      <c r="E156" s="87"/>
+      <c r="F156" s="93"/>
       <c r="G156" s="29" t="s">
         <v>93</v>
       </c>
@@ -7858,20 +8156,22 @@
       <c r="L156" s="11"/>
     </row>
     <row r="157" spans="1:12" ht="30">
-      <c r="A157" s="12"/>
-      <c r="B157" s="91" t="s">
+      <c r="A157" s="12">
+        <v>153</v>
+      </c>
+      <c r="B157" s="88" t="s">
         <v>207</v>
       </c>
-      <c r="C157" s="91" t="s">
+      <c r="C157" s="88" t="s">
         <v>208</v>
       </c>
       <c r="D157" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E157" s="94" t="s">
+      <c r="E157" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F157" s="88" t="s">
+      <c r="F157" s="91" t="s">
         <v>209</v>
       </c>
       <c r="G157" s="29" t="s">
@@ -7884,16 +8184,18 @@
       <c r="L157" s="11"/>
     </row>
     <row r="158" spans="1:12" ht="30">
-      <c r="A158" s="12"/>
-      <c r="B158" s="92"/>
-      <c r="C158" s="92"/>
+      <c r="A158" s="84">
+        <v>154</v>
+      </c>
+      <c r="B158" s="89"/>
+      <c r="C158" s="89"/>
       <c r="D158" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="E158" s="95"/>
-      <c r="F158" s="89"/>
+      <c r="E158" s="86"/>
+      <c r="F158" s="92"/>
       <c r="G158" s="29" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="H158" s="12"/>
       <c r="I158" s="12"/>
@@ -7902,14 +8204,16 @@
       <c r="L158" s="11"/>
     </row>
     <row r="159" spans="1:12" ht="15">
-      <c r="A159" s="12"/>
-      <c r="B159" s="93"/>
-      <c r="C159" s="93"/>
+      <c r="A159" s="12">
+        <v>155</v>
+      </c>
+      <c r="B159" s="90"/>
+      <c r="C159" s="90"/>
       <c r="D159" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E159" s="96"/>
-      <c r="F159" s="90"/>
+      <c r="E159" s="87"/>
+      <c r="F159" s="93"/>
       <c r="G159" s="29" t="s">
         <v>161</v>
       </c>
@@ -7920,21 +8224,23 @@
       <c r="L159" s="11"/>
     </row>
     <row r="160" spans="1:12" ht="30">
-      <c r="A160" s="12"/>
-      <c r="B160" s="91" t="s">
+      <c r="A160" s="12">
+        <v>156</v>
+      </c>
+      <c r="B160" s="88" t="s">
         <v>210</v>
       </c>
-      <c r="C160" s="91" t="s">
+      <c r="C160" s="88" t="s">
         <v>211</v>
       </c>
       <c r="D160" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E160" s="94" t="s">
+      <c r="E160" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F160" s="88" t="s">
-        <v>212</v>
+      <c r="F160" s="91" t="s">
+        <v>276</v>
       </c>
       <c r="G160" s="30" t="s">
         <v>86</v>
@@ -7946,14 +8252,16 @@
       <c r="L160" s="11"/>
     </row>
     <row r="161" spans="1:12" ht="30">
-      <c r="A161" s="12"/>
-      <c r="B161" s="92"/>
-      <c r="C161" s="92"/>
+      <c r="A161" s="84">
+        <v>157</v>
+      </c>
+      <c r="B161" s="89"/>
+      <c r="C161" s="89"/>
       <c r="D161" s="29" t="s">
         <v>137</v>
       </c>
-      <c r="E161" s="95"/>
-      <c r="F161" s="89"/>
+      <c r="E161" s="86"/>
+      <c r="F161" s="92"/>
       <c r="G161" s="35" t="s">
         <v>139</v>
       </c>
@@ -7964,14 +8272,16 @@
       <c r="L161" s="11"/>
     </row>
     <row r="162" spans="1:12" ht="30">
-      <c r="A162" s="12"/>
-      <c r="B162" s="93"/>
-      <c r="C162" s="93"/>
+      <c r="A162" s="12">
+        <v>158</v>
+      </c>
+      <c r="B162" s="90"/>
+      <c r="C162" s="90"/>
       <c r="D162" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E162" s="96"/>
-      <c r="F162" s="90"/>
+      <c r="E162" s="87"/>
+      <c r="F162" s="93"/>
       <c r="G162" s="35" t="s">
         <v>141</v>
       </c>
@@ -7982,24 +8292,26 @@
       <c r="L162" s="11"/>
     </row>
     <row r="163" spans="1:12" ht="45" customHeight="1">
-      <c r="A163" s="12"/>
-      <c r="B163" s="91" t="s">
+      <c r="A163" s="12">
+        <v>159</v>
+      </c>
+      <c r="B163" s="88" t="s">
+        <v>213</v>
+      </c>
+      <c r="C163" s="88" t="s">
         <v>214</v>
-      </c>
-      <c r="C163" s="91" t="s">
-        <v>215</v>
       </c>
       <c r="D163" s="24" t="s">
         <v>87</v>
       </c>
-      <c r="E163" s="94" t="s">
+      <c r="E163" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F163" s="88" t="s">
-        <v>216</v>
+      <c r="F163" s="91" t="s">
+        <v>215</v>
       </c>
       <c r="G163" s="29" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H163" s="12"/>
       <c r="I163" s="12"/>
@@ -8008,16 +8320,18 @@
       <c r="L163" s="11"/>
     </row>
     <row r="164" spans="1:12" ht="15">
-      <c r="A164" s="12"/>
-      <c r="B164" s="92"/>
-      <c r="C164" s="92"/>
+      <c r="A164" s="84">
+        <v>160</v>
+      </c>
+      <c r="B164" s="89"/>
+      <c r="C164" s="89"/>
       <c r="D164" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="E164" s="86"/>
+      <c r="F164" s="92"/>
+      <c r="G164" s="29" t="s">
         <v>220</v>
-      </c>
-      <c r="E164" s="95"/>
-      <c r="F164" s="89"/>
-      <c r="G164" s="29" t="s">
-        <v>221</v>
       </c>
       <c r="H164" s="12"/>
       <c r="I164" s="12"/>
@@ -8026,16 +8340,18 @@
       <c r="L164" s="11"/>
     </row>
     <row r="165" spans="1:12" ht="15">
-      <c r="A165" s="12"/>
-      <c r="B165" s="92"/>
-      <c r="C165" s="92"/>
+      <c r="A165" s="12">
+        <v>161</v>
+      </c>
+      <c r="B165" s="89"/>
+      <c r="C165" s="89"/>
       <c r="D165" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="E165" s="95"/>
-      <c r="F165" s="89"/>
+        <v>218</v>
+      </c>
+      <c r="E165" s="86"/>
+      <c r="F165" s="92"/>
       <c r="G165" s="29" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H165" s="12"/>
       <c r="I165" s="12"/>
@@ -8044,14 +8360,16 @@
       <c r="L165" s="11"/>
     </row>
     <row r="166" spans="1:12" ht="30">
-      <c r="A166" s="12"/>
-      <c r="B166" s="93"/>
-      <c r="C166" s="93"/>
+      <c r="A166" s="12">
+        <v>162</v>
+      </c>
+      <c r="B166" s="90"/>
+      <c r="C166" s="90"/>
       <c r="D166" s="25" t="s">
-        <v>223</v>
-      </c>
-      <c r="E166" s="96"/>
-      <c r="F166" s="90"/>
+        <v>222</v>
+      </c>
+      <c r="E166" s="87"/>
+      <c r="F166" s="93"/>
       <c r="G166" s="35" t="s">
         <v>139</v>
       </c>
@@ -8062,24 +8380,26 @@
       <c r="L166" s="11"/>
     </row>
     <row r="167" spans="1:12" ht="30" customHeight="1">
-      <c r="A167" s="12"/>
-      <c r="B167" s="91" t="s">
-        <v>217</v>
-      </c>
-      <c r="C167" s="91" t="s">
-        <v>224</v>
+      <c r="A167" s="84">
+        <v>163</v>
+      </c>
+      <c r="B167" s="88" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" s="88" t="s">
+        <v>223</v>
       </c>
       <c r="D167" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E167" s="94" t="s">
+      <c r="E167" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F167" s="88" t="s">
-        <v>225</v>
+      <c r="F167" s="91" t="s">
+        <v>224</v>
       </c>
       <c r="G167" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H167" s="12"/>
       <c r="I167" s="12"/>
@@ -8088,16 +8408,18 @@
       <c r="L167" s="11"/>
     </row>
     <row r="168" spans="1:12" ht="30">
-      <c r="A168" s="12"/>
-      <c r="B168" s="92"/>
-      <c r="C168" s="92"/>
+      <c r="A168" s="12">
+        <v>164</v>
+      </c>
+      <c r="B168" s="89"/>
+      <c r="C168" s="89"/>
       <c r="D168" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E168" s="95"/>
-      <c r="F168" s="89"/>
+      <c r="E168" s="86"/>
+      <c r="F168" s="92"/>
       <c r="G168" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H168" s="12"/>
       <c r="I168" s="12"/>
@@ -8106,16 +8428,18 @@
       <c r="L168" s="11"/>
     </row>
     <row r="169" spans="1:12" ht="30">
-      <c r="A169" s="12"/>
-      <c r="B169" s="92"/>
-      <c r="C169" s="92"/>
+      <c r="A169" s="12">
+        <v>165</v>
+      </c>
+      <c r="B169" s="89"/>
+      <c r="C169" s="89"/>
       <c r="D169" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E169" s="86"/>
+      <c r="F169" s="92"/>
+      <c r="G169" s="29" t="s">
         <v>229</v>
-      </c>
-      <c r="E169" s="95"/>
-      <c r="F169" s="89"/>
-      <c r="G169" s="29" t="s">
-        <v>230</v>
       </c>
       <c r="H169" s="12"/>
       <c r="I169" s="12"/>
@@ -8124,16 +8448,18 @@
       <c r="L169" s="11"/>
     </row>
     <row r="170" spans="1:12" ht="15">
-      <c r="A170" s="12"/>
-      <c r="B170" s="92"/>
-      <c r="C170" s="92"/>
+      <c r="A170" s="84">
+        <v>166</v>
+      </c>
+      <c r="B170" s="89"/>
+      <c r="C170" s="89"/>
       <c r="D170" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E170" s="95"/>
-      <c r="F170" s="89"/>
-      <c r="G170" s="91" t="s">
-        <v>231</v>
+      <c r="E170" s="86"/>
+      <c r="F170" s="92"/>
+      <c r="G170" s="88" t="s">
+        <v>230</v>
       </c>
       <c r="H170" s="12"/>
       <c r="I170" s="12"/>
@@ -8142,15 +8468,17 @@
       <c r="L170" s="11"/>
     </row>
     <row r="171" spans="1:12" ht="15">
-      <c r="A171" s="12"/>
-      <c r="B171" s="92"/>
-      <c r="C171" s="92"/>
+      <c r="A171" s="12">
+        <v>167</v>
+      </c>
+      <c r="B171" s="89"/>
+      <c r="C171" s="89"/>
       <c r="D171" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E171" s="95"/>
-      <c r="F171" s="89"/>
-      <c r="G171" s="93"/>
+      <c r="E171" s="86"/>
+      <c r="F171" s="92"/>
+      <c r="G171" s="90"/>
       <c r="H171" s="12"/>
       <c r="I171" s="12"/>
       <c r="J171" s="28"/>
@@ -8158,14 +8486,16 @@
       <c r="L171" s="11"/>
     </row>
     <row r="172" spans="1:12" ht="15">
-      <c r="A172" s="12"/>
-      <c r="B172" s="93"/>
-      <c r="C172" s="93"/>
+      <c r="A172" s="12">
+        <v>168</v>
+      </c>
+      <c r="B172" s="90"/>
+      <c r="C172" s="90"/>
       <c r="D172" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E172" s="96"/>
-      <c r="F172" s="90"/>
+      <c r="E172" s="87"/>
+      <c r="F172" s="93"/>
       <c r="G172" s="29" t="s">
         <v>93</v>
       </c>
@@ -8176,21 +8506,23 @@
       <c r="L172" s="11"/>
     </row>
     <row r="173" spans="1:12" ht="30">
-      <c r="A173" s="12"/>
-      <c r="B173" s="91" t="s">
-        <v>232</v>
-      </c>
-      <c r="C173" s="91" t="s">
-        <v>224</v>
+      <c r="A173" s="84">
+        <v>169</v>
+      </c>
+      <c r="B173" s="88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C173" s="88" t="s">
+        <v>223</v>
       </c>
       <c r="D173" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E173" s="94" t="s">
+      <c r="E173" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F173" s="88" t="s">
-        <v>233</v>
+      <c r="F173" s="91" t="s">
+        <v>232</v>
       </c>
       <c r="G173" s="30" t="s">
         <v>99</v>
@@ -8202,14 +8534,16 @@
       <c r="L173" s="11"/>
     </row>
     <row r="174" spans="1:12" ht="45">
-      <c r="A174" s="12"/>
-      <c r="B174" s="92"/>
-      <c r="C174" s="92"/>
+      <c r="A174" s="12">
+        <v>170</v>
+      </c>
+      <c r="B174" s="89"/>
+      <c r="C174" s="89"/>
       <c r="D174" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E174" s="95"/>
-      <c r="F174" s="89"/>
+      <c r="E174" s="86"/>
+      <c r="F174" s="92"/>
       <c r="G174" s="30" t="s">
         <v>102</v>
       </c>
@@ -8220,14 +8554,16 @@
       <c r="L174" s="11"/>
     </row>
     <row r="175" spans="1:12" ht="45">
-      <c r="A175" s="12"/>
-      <c r="B175" s="92"/>
-      <c r="C175" s="92"/>
+      <c r="A175" s="12">
+        <v>171</v>
+      </c>
+      <c r="B175" s="89"/>
+      <c r="C175" s="89"/>
       <c r="D175" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E175" s="95"/>
-      <c r="F175" s="89"/>
+      <c r="E175" s="86"/>
+      <c r="F175" s="92"/>
       <c r="G175" s="30" t="s">
         <v>103</v>
       </c>
@@ -8238,15 +8574,17 @@
       <c r="L175" s="11"/>
     </row>
     <row r="176" spans="1:12" ht="30">
-      <c r="A176" s="12"/>
-      <c r="B176" s="93"/>
-      <c r="C176" s="93"/>
+      <c r="A176" s="84">
+        <v>172</v>
+      </c>
+      <c r="B176" s="90"/>
+      <c r="C176" s="90"/>
       <c r="D176" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E176" s="96"/>
-      <c r="F176" s="90"/>
-      <c r="G176" s="84" t="s">
+      <c r="E176" s="87"/>
+      <c r="F176" s="93"/>
+      <c r="G176" s="83" t="s">
         <v>81</v>
       </c>
       <c r="H176" s="12"/>
@@ -8256,24 +8594,26 @@
       <c r="L176" s="11"/>
     </row>
     <row r="177" spans="1:12" ht="30" customHeight="1">
-      <c r="A177" s="12"/>
-      <c r="B177" s="91" t="s">
+      <c r="A177" s="12">
+        <v>173</v>
+      </c>
+      <c r="B177" s="88" t="s">
+        <v>233</v>
+      </c>
+      <c r="C177" s="88" t="s">
         <v>234</v>
-      </c>
-      <c r="C177" s="91" t="s">
-        <v>235</v>
       </c>
       <c r="D177" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E177" s="94" t="s">
+      <c r="E177" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F177" s="88" t="s">
-        <v>233</v>
+      <c r="F177" s="91" t="s">
+        <v>232</v>
       </c>
       <c r="G177" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="H177" s="12"/>
       <c r="I177" s="12"/>
@@ -8282,16 +8622,18 @@
       <c r="L177" s="11"/>
     </row>
     <row r="178" spans="1:12" ht="15">
-      <c r="A178" s="12"/>
-      <c r="B178" s="92"/>
-      <c r="C178" s="92"/>
+      <c r="A178" s="12">
+        <v>174</v>
+      </c>
+      <c r="B178" s="89"/>
+      <c r="C178" s="89"/>
       <c r="D178" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E178" s="95"/>
-      <c r="F178" s="89"/>
+      <c r="E178" s="86"/>
+      <c r="F178" s="92"/>
       <c r="G178" s="29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H178" s="12"/>
       <c r="I178" s="12"/>
@@ -8300,16 +8642,18 @@
       <c r="L178" s="11"/>
     </row>
     <row r="179" spans="1:12" ht="15">
-      <c r="A179" s="12"/>
-      <c r="B179" s="92"/>
-      <c r="C179" s="92"/>
+      <c r="A179" s="84">
+        <v>175</v>
+      </c>
+      <c r="B179" s="89"/>
+      <c r="C179" s="89"/>
       <c r="D179" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E179" s="95"/>
-      <c r="F179" s="89"/>
+      <c r="E179" s="86"/>
+      <c r="F179" s="92"/>
       <c r="G179" s="29" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="H179" s="12"/>
       <c r="I179" s="12"/>
@@ -8318,14 +8662,16 @@
       <c r="L179" s="11"/>
     </row>
     <row r="180" spans="1:12" ht="15">
-      <c r="A180" s="12"/>
-      <c r="B180" s="92"/>
-      <c r="C180" s="92"/>
+      <c r="A180" s="12">
+        <v>176</v>
+      </c>
+      <c r="B180" s="89"/>
+      <c r="C180" s="89"/>
       <c r="D180" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="E180" s="95"/>
-      <c r="F180" s="89"/>
+      <c r="E180" s="86"/>
+      <c r="F180" s="92"/>
       <c r="G180" s="29" t="s">
         <v>161</v>
       </c>
@@ -8336,16 +8682,18 @@
       <c r="L180" s="11"/>
     </row>
     <row r="181" spans="1:12" ht="15">
-      <c r="A181" s="12"/>
-      <c r="B181" s="93"/>
-      <c r="C181" s="93"/>
+      <c r="A181" s="12">
+        <v>177</v>
+      </c>
+      <c r="B181" s="90"/>
+      <c r="C181" s="90"/>
       <c r="D181" s="24" t="s">
         <v>171</v>
       </c>
-      <c r="E181" s="96"/>
-      <c r="F181" s="90"/>
+      <c r="E181" s="87"/>
+      <c r="F181" s="93"/>
       <c r="G181" s="29" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H181" s="12"/>
       <c r="I181" s="12"/>
@@ -8354,24 +8702,26 @@
       <c r="L181" s="11"/>
     </row>
     <row r="182" spans="1:12" ht="30" customHeight="1">
-      <c r="A182" s="12"/>
-      <c r="B182" s="91" t="s">
-        <v>243</v>
-      </c>
-      <c r="C182" s="91" t="s">
-        <v>224</v>
+      <c r="A182" s="84">
+        <v>178</v>
+      </c>
+      <c r="B182" s="88" t="s">
+        <v>242</v>
+      </c>
+      <c r="C182" s="88" t="s">
+        <v>223</v>
       </c>
       <c r="D182" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E182" s="94" t="s">
+      <c r="E182" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F182" s="88" t="s">
+      <c r="F182" s="91" t="s">
+        <v>243</v>
+      </c>
+      <c r="G182" s="29" t="s">
         <v>244</v>
-      </c>
-      <c r="G182" s="29" t="s">
-        <v>245</v>
       </c>
       <c r="H182" s="12"/>
       <c r="I182" s="12"/>
@@ -8380,16 +8730,18 @@
       <c r="L182" s="11"/>
     </row>
     <row r="183" spans="1:12" ht="30">
-      <c r="A183" s="12"/>
-      <c r="B183" s="92"/>
-      <c r="C183" s="92"/>
+      <c r="A183" s="12">
+        <v>179</v>
+      </c>
+      <c r="B183" s="89"/>
+      <c r="C183" s="89"/>
       <c r="D183" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E183" s="95"/>
-      <c r="F183" s="89"/>
+      <c r="E183" s="86"/>
+      <c r="F183" s="92"/>
       <c r="G183" s="29" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="H183" s="12"/>
       <c r="I183" s="12"/>
@@ -8398,16 +8750,18 @@
       <c r="L183" s="11"/>
     </row>
     <row r="184" spans="1:12" ht="30">
-      <c r="A184" s="12"/>
-      <c r="B184" s="92"/>
-      <c r="C184" s="92"/>
+      <c r="A184" s="12">
+        <v>180</v>
+      </c>
+      <c r="B184" s="89"/>
+      <c r="C184" s="89"/>
       <c r="D184" s="25" t="s">
+        <v>228</v>
+      </c>
+      <c r="E184" s="86"/>
+      <c r="F184" s="92"/>
+      <c r="G184" s="29" t="s">
         <v>229</v>
-      </c>
-      <c r="E184" s="95"/>
-      <c r="F184" s="89"/>
-      <c r="G184" s="29" t="s">
-        <v>230</v>
       </c>
       <c r="H184" s="12"/>
       <c r="I184" s="12"/>
@@ -8416,16 +8770,18 @@
       <c r="L184" s="11"/>
     </row>
     <row r="185" spans="1:12" ht="21" customHeight="1">
-      <c r="A185" s="12"/>
-      <c r="B185" s="92"/>
-      <c r="C185" s="92"/>
+      <c r="A185" s="84">
+        <v>181</v>
+      </c>
+      <c r="B185" s="89"/>
+      <c r="C185" s="89"/>
       <c r="D185" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E185" s="95"/>
-      <c r="F185" s="89"/>
-      <c r="G185" s="91" t="s">
-        <v>247</v>
+      <c r="E185" s="86"/>
+      <c r="F185" s="92"/>
+      <c r="G185" s="88" t="s">
+        <v>246</v>
       </c>
       <c r="H185" s="12"/>
       <c r="I185" s="12"/>
@@ -8434,15 +8790,17 @@
       <c r="L185" s="11"/>
     </row>
     <row r="186" spans="1:12" ht="21.6" customHeight="1">
-      <c r="A186" s="12"/>
-      <c r="B186" s="92"/>
-      <c r="C186" s="92"/>
+      <c r="A186" s="12">
+        <v>182</v>
+      </c>
+      <c r="B186" s="89"/>
+      <c r="C186" s="89"/>
       <c r="D186" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="E186" s="95"/>
-      <c r="F186" s="89"/>
-      <c r="G186" s="93"/>
+      <c r="E186" s="86"/>
+      <c r="F186" s="92"/>
+      <c r="G186" s="90"/>
       <c r="H186" s="12"/>
       <c r="I186" s="12"/>
       <c r="J186" s="28"/>
@@ -8450,14 +8808,16 @@
       <c r="L186" s="11"/>
     </row>
     <row r="187" spans="1:12" ht="15">
-      <c r="A187" s="12"/>
-      <c r="B187" s="93"/>
-      <c r="C187" s="93"/>
+      <c r="A187" s="12">
+        <v>183</v>
+      </c>
+      <c r="B187" s="90"/>
+      <c r="C187" s="90"/>
       <c r="D187" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E187" s="96"/>
-      <c r="F187" s="90"/>
+      <c r="E187" s="87"/>
+      <c r="F187" s="93"/>
       <c r="G187" s="29" t="s">
         <v>93</v>
       </c>
@@ -8468,21 +8828,23 @@
       <c r="L187" s="11"/>
     </row>
     <row r="188" spans="1:12" ht="30">
-      <c r="A188" s="12"/>
-      <c r="B188" s="91" t="s">
+      <c r="A188" s="84">
+        <v>184</v>
+      </c>
+      <c r="B188" s="88" t="s">
+        <v>239</v>
+      </c>
+      <c r="C188" s="88" t="s">
         <v>240</v>
-      </c>
-      <c r="C188" s="91" t="s">
-        <v>241</v>
       </c>
       <c r="D188" s="23" t="s">
         <v>87</v>
       </c>
-      <c r="E188" s="94" t="s">
+      <c r="E188" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F188" s="88" t="s">
-        <v>242</v>
+      <c r="F188" s="91" t="s">
+        <v>241</v>
       </c>
       <c r="G188" s="30" t="s">
         <v>86</v>
@@ -8494,14 +8856,16 @@
       <c r="L188" s="11"/>
     </row>
     <row r="189" spans="1:12" ht="30">
-      <c r="A189" s="12"/>
-      <c r="B189" s="92"/>
-      <c r="C189" s="92"/>
+      <c r="A189" s="12">
+        <v>185</v>
+      </c>
+      <c r="B189" s="89"/>
+      <c r="C189" s="89"/>
       <c r="D189" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="E189" s="95"/>
-      <c r="F189" s="89"/>
+        <v>138</v>
+      </c>
+      <c r="E189" s="86"/>
+      <c r="F189" s="92"/>
       <c r="G189" s="35" t="s">
         <v>139</v>
       </c>
@@ -8512,14 +8876,16 @@
       <c r="L189" s="11"/>
     </row>
     <row r="190" spans="1:12" ht="30">
-      <c r="A190" s="12"/>
-      <c r="B190" s="93"/>
-      <c r="C190" s="93"/>
+      <c r="A190" s="12">
+        <v>186</v>
+      </c>
+      <c r="B190" s="90"/>
+      <c r="C190" s="90"/>
       <c r="D190" s="29" t="s">
         <v>140</v>
       </c>
-      <c r="E190" s="96"/>
-      <c r="F190" s="90"/>
+      <c r="E190" s="87"/>
+      <c r="F190" s="93"/>
       <c r="G190" s="35" t="s">
         <v>141</v>
       </c>
@@ -8530,24 +8896,26 @@
       <c r="L190" s="11"/>
     </row>
     <row r="191" spans="1:12" ht="15">
-      <c r="A191" s="12"/>
-      <c r="B191" s="91" t="s">
-        <v>218</v>
-      </c>
-      <c r="C191" s="91" t="s">
-        <v>268</v>
+      <c r="A191" s="84">
+        <v>187</v>
+      </c>
+      <c r="B191" s="88" t="s">
+        <v>217</v>
+      </c>
+      <c r="C191" s="88" t="s">
+        <v>267</v>
       </c>
       <c r="D191" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="E191" s="94" t="s">
+      <c r="E191" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="F191" s="88" t="s">
-        <v>269</v>
+      <c r="F191" s="91" t="s">
+        <v>268</v>
       </c>
       <c r="G191" s="29" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H191" s="12"/>
       <c r="I191" s="12"/>
@@ -8556,16 +8924,18 @@
       <c r="L191" s="11"/>
     </row>
     <row r="192" spans="1:12" ht="30">
-      <c r="A192" s="12"/>
-      <c r="B192" s="92"/>
-      <c r="C192" s="92"/>
+      <c r="A192" s="12">
+        <v>188</v>
+      </c>
+      <c r="B192" s="89"/>
+      <c r="C192" s="89"/>
       <c r="D192" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="E192" s="95"/>
-      <c r="F192" s="89"/>
+      <c r="E192" s="86"/>
+      <c r="F192" s="92"/>
       <c r="G192" s="29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H192" s="12"/>
       <c r="I192" s="12"/>
@@ -8574,16 +8944,18 @@
       <c r="L192" s="11"/>
     </row>
     <row r="193" spans="1:12" ht="15">
-      <c r="A193" s="12"/>
-      <c r="B193" s="92"/>
-      <c r="C193" s="92"/>
+      <c r="A193" s="12">
+        <v>189</v>
+      </c>
+      <c r="B193" s="89"/>
+      <c r="C193" s="89"/>
       <c r="D193" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="E193" s="95"/>
-      <c r="F193" s="89"/>
+      <c r="E193" s="86"/>
+      <c r="F193" s="92"/>
       <c r="G193" s="29" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H193" s="12"/>
       <c r="I193" s="12"/>
@@ -8592,14 +8964,16 @@
       <c r="L193" s="11"/>
     </row>
     <row r="194" spans="1:12" ht="15">
-      <c r="A194" s="12"/>
-      <c r="B194" s="93"/>
-      <c r="C194" s="93"/>
+      <c r="A194" s="84">
+        <v>190</v>
+      </c>
+      <c r="B194" s="90"/>
+      <c r="C194" s="90"/>
       <c r="D194" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="E194" s="96"/>
-      <c r="F194" s="90"/>
+      <c r="E194" s="87"/>
+      <c r="F194" s="93"/>
       <c r="G194" s="29" t="s">
         <v>93</v>
       </c>
@@ -8609,114 +8983,184 @@
       <c r="K194" s="37"/>
       <c r="L194" s="11"/>
     </row>
-    <row r="195" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A195" s="12"/>
-      <c r="B195" s="43" t="s">
+    <row r="195" spans="1:12" ht="30" customHeight="1">
+      <c r="A195" s="12">
+        <v>191</v>
+      </c>
+      <c r="B195" s="88" t="s">
+        <v>270</v>
+      </c>
+      <c r="C195" s="88" t="s">
         <v>271</v>
       </c>
-      <c r="C195" s="25"/>
-      <c r="D195" s="24"/>
-      <c r="E195" s="12"/>
-      <c r="F195" s="35"/>
-      <c r="G195" s="29"/>
+      <c r="D195" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E195" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F195" s="91" t="s">
+        <v>272</v>
+      </c>
+      <c r="G195" s="29" t="s">
+        <v>174</v>
+      </c>
       <c r="H195" s="12"/>
       <c r="I195" s="12"/>
       <c r="J195" s="28"/>
       <c r="K195" s="37"/>
       <c r="L195" s="11"/>
     </row>
-    <row r="196" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A196" s="12"/>
-      <c r="B196" s="43"/>
-      <c r="C196" s="25"/>
-      <c r="D196" s="24"/>
-      <c r="E196" s="12"/>
-      <c r="F196" s="35"/>
-      <c r="G196" s="29"/>
+    <row r="196" spans="1:12" ht="30">
+      <c r="A196" s="12">
+        <v>192</v>
+      </c>
+      <c r="B196" s="89"/>
+      <c r="C196" s="89"/>
+      <c r="D196" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="E196" s="86"/>
+      <c r="F196" s="92"/>
+      <c r="G196" s="29" t="s">
+        <v>247</v>
+      </c>
       <c r="H196" s="12"/>
       <c r="I196" s="12"/>
       <c r="J196" s="28"/>
       <c r="K196" s="37"/>
       <c r="L196" s="11"/>
     </row>
-    <row r="197" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A197" s="12"/>
-      <c r="B197" s="43"/>
-      <c r="C197" s="25"/>
-      <c r="D197" s="24"/>
-      <c r="E197" s="12"/>
-      <c r="F197" s="35"/>
-      <c r="G197" s="29"/>
+    <row r="197" spans="1:12" ht="15">
+      <c r="A197" s="84">
+        <v>193</v>
+      </c>
+      <c r="B197" s="90"/>
+      <c r="C197" s="90"/>
+      <c r="D197" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E197" s="87"/>
+      <c r="F197" s="93"/>
+      <c r="G197" s="29" t="s">
+        <v>161</v>
+      </c>
       <c r="H197" s="12"/>
       <c r="I197" s="12"/>
       <c r="J197" s="28"/>
       <c r="K197" s="37"/>
       <c r="L197" s="11"/>
     </row>
-    <row r="198" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A198" s="12"/>
-      <c r="B198" s="43"/>
-      <c r="C198" s="25"/>
-      <c r="D198" s="24"/>
-      <c r="E198" s="12"/>
-      <c r="F198" s="35"/>
-      <c r="G198" s="29"/>
+    <row r="198" spans="1:12" ht="30">
+      <c r="A198" s="12">
+        <v>194</v>
+      </c>
+      <c r="B198" s="88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C198" s="88" t="s">
+        <v>274</v>
+      </c>
+      <c r="D198" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="E198" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F198" s="91" t="s">
+        <v>275</v>
+      </c>
+      <c r="G198" s="30" t="s">
+        <v>86</v>
+      </c>
       <c r="H198" s="12"/>
       <c r="I198" s="12"/>
       <c r="J198" s="28"/>
       <c r="K198" s="37"/>
       <c r="L198" s="11"/>
     </row>
-    <row r="199" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A199" s="12"/>
-      <c r="B199" s="43"/>
-      <c r="C199" s="25"/>
-      <c r="D199" s="24"/>
-      <c r="E199" s="12"/>
-      <c r="F199" s="35"/>
-      <c r="G199" s="29"/>
+    <row r="199" spans="1:12" ht="30">
+      <c r="A199" s="12">
+        <v>195</v>
+      </c>
+      <c r="B199" s="89"/>
+      <c r="C199" s="89"/>
+      <c r="D199" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="E199" s="86"/>
+      <c r="F199" s="92"/>
+      <c r="G199" s="35" t="s">
+        <v>139</v>
+      </c>
       <c r="H199" s="12"/>
       <c r="I199" s="12"/>
       <c r="J199" s="28"/>
       <c r="K199" s="37"/>
       <c r="L199" s="11"/>
     </row>
-    <row r="200" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A200" s="12"/>
-      <c r="B200" s="43"/>
-      <c r="C200" s="25"/>
-      <c r="D200" s="24"/>
-      <c r="E200" s="12"/>
-      <c r="F200" s="35"/>
-      <c r="G200" s="29"/>
+    <row r="200" spans="1:12" ht="30">
+      <c r="A200" s="84">
+        <v>196</v>
+      </c>
+      <c r="B200" s="90"/>
+      <c r="C200" s="90"/>
+      <c r="D200" s="29" t="s">
+        <v>140</v>
+      </c>
+      <c r="E200" s="87"/>
+      <c r="F200" s="93"/>
+      <c r="G200" s="35" t="s">
+        <v>141</v>
+      </c>
       <c r="H200" s="12"/>
       <c r="I200" s="12"/>
       <c r="J200" s="28"/>
       <c r="K200" s="37"/>
       <c r="L200" s="11"/>
     </row>
-    <row r="201" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A201" s="12"/>
-      <c r="B201" s="43"/>
-      <c r="C201" s="25"/>
-      <c r="D201" s="24"/>
-      <c r="E201" s="12"/>
-      <c r="F201" s="35"/>
-      <c r="G201" s="29"/>
+    <row r="201" spans="1:12" ht="45" customHeight="1">
+      <c r="A201" s="12">
+        <v>197</v>
+      </c>
+      <c r="B201" s="88" t="s">
+        <v>277</v>
+      </c>
+      <c r="C201" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="D201" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E201" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="F201" s="91" t="s">
+        <v>279</v>
+      </c>
+      <c r="G201" s="29" t="s">
+        <v>281</v>
+      </c>
       <c r="H201" s="12"/>
       <c r="I201" s="12"/>
       <c r="J201" s="28"/>
       <c r="K201" s="37"/>
       <c r="L201" s="11"/>
     </row>
-    <row r="202" spans="1:12" ht="11.25" customHeight="1">
-      <c r="A202" s="12"/>
-      <c r="B202" s="43"/>
-      <c r="C202" s="25"/>
-      <c r="D202" s="24"/>
-      <c r="E202" s="12"/>
-      <c r="F202" s="35"/>
-      <c r="G202" s="29"/>
+    <row r="202" spans="1:12" ht="30">
+      <c r="A202" s="12">
+        <v>198</v>
+      </c>
+      <c r="B202" s="90"/>
+      <c r="C202" s="90"/>
+      <c r="D202" s="29" t="s">
+        <v>280</v>
+      </c>
+      <c r="E202" s="87"/>
+      <c r="F202" s="93"/>
+      <c r="G202" s="29" t="s">
+        <v>282</v>
+      </c>
       <c r="H202" s="12"/>
       <c r="I202" s="12"/>
       <c r="J202" s="28"/>
@@ -9088,7 +9532,185 @@
       <c r="L228" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="190">
+  <mergeCells count="202">
+    <mergeCell ref="E198:E200"/>
+    <mergeCell ref="F198:F200"/>
+    <mergeCell ref="C198:C200"/>
+    <mergeCell ref="B198:B200"/>
+    <mergeCell ref="C201:C202"/>
+    <mergeCell ref="B201:B202"/>
+    <mergeCell ref="E201:E202"/>
+    <mergeCell ref="F201:F202"/>
+    <mergeCell ref="E64:E66"/>
+    <mergeCell ref="F64:F66"/>
+    <mergeCell ref="C64:C66"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="C67:C74"/>
+    <mergeCell ref="B67:B74"/>
+    <mergeCell ref="E67:E74"/>
+    <mergeCell ref="F67:F74"/>
+    <mergeCell ref="C195:C197"/>
+    <mergeCell ref="B195:B197"/>
+    <mergeCell ref="E195:E197"/>
+    <mergeCell ref="F195:F197"/>
+    <mergeCell ref="C61:C63"/>
+    <mergeCell ref="B61:B63"/>
+    <mergeCell ref="E61:E63"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="F30:F32"/>
+    <mergeCell ref="E52:E54"/>
+    <mergeCell ref="F52:F54"/>
+    <mergeCell ref="C52:C54"/>
+    <mergeCell ref="B52:B54"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="E38:E41"/>
+    <mergeCell ref="C38:C41"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="B38:B41"/>
+    <mergeCell ref="F38:F41"/>
+    <mergeCell ref="E30:E32"/>
+    <mergeCell ref="C30:C32"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="E25:E27"/>
+    <mergeCell ref="F25:F27"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="E11:E13"/>
+    <mergeCell ref="C8:C10"/>
+    <mergeCell ref="C11:C13"/>
+    <mergeCell ref="F11:F13"/>
+    <mergeCell ref="B11:B13"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C14:C17"/>
+    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F20:F22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="E14:E17"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="F14:F17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="E97:E99"/>
+    <mergeCell ref="F97:F99"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="B97:B99"/>
+    <mergeCell ref="F81:F83"/>
+    <mergeCell ref="C81:C83"/>
+    <mergeCell ref="B81:B83"/>
+    <mergeCell ref="E81:E83"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E75:E80"/>
+    <mergeCell ref="F75:F80"/>
+    <mergeCell ref="C75:C80"/>
+    <mergeCell ref="B75:B80"/>
+    <mergeCell ref="B42:B46"/>
+    <mergeCell ref="C42:C46"/>
+    <mergeCell ref="E42:E46"/>
+    <mergeCell ref="F42:F46"/>
+    <mergeCell ref="F55:F60"/>
+    <mergeCell ref="F61:F63"/>
+    <mergeCell ref="E55:E60"/>
+    <mergeCell ref="C55:C60"/>
+    <mergeCell ref="B55:B60"/>
+    <mergeCell ref="B84:B90"/>
+    <mergeCell ref="C84:C90"/>
+    <mergeCell ref="E84:E90"/>
+    <mergeCell ref="F84:F90"/>
+    <mergeCell ref="B91:B96"/>
+    <mergeCell ref="C91:C96"/>
+    <mergeCell ref="E91:E96"/>
+    <mergeCell ref="F91:F96"/>
+    <mergeCell ref="G84:G85"/>
+    <mergeCell ref="E106:E108"/>
+    <mergeCell ref="F106:F108"/>
+    <mergeCell ref="C106:C108"/>
+    <mergeCell ref="B106:B108"/>
+    <mergeCell ref="E109:E111"/>
+    <mergeCell ref="F109:F111"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="B109:B111"/>
+    <mergeCell ref="E100:E105"/>
+    <mergeCell ref="F100:F105"/>
+    <mergeCell ref="C100:C105"/>
+    <mergeCell ref="B100:B105"/>
+    <mergeCell ref="B120:B122"/>
+    <mergeCell ref="C120:C122"/>
+    <mergeCell ref="E120:E122"/>
+    <mergeCell ref="F120:F122"/>
+    <mergeCell ref="B123:B129"/>
+    <mergeCell ref="C123:C129"/>
+    <mergeCell ref="E123:E129"/>
+    <mergeCell ref="F123:F129"/>
+    <mergeCell ref="B112:B116"/>
+    <mergeCell ref="C112:C116"/>
+    <mergeCell ref="E112:E116"/>
+    <mergeCell ref="F112:F116"/>
+    <mergeCell ref="B117:B119"/>
+    <mergeCell ref="C117:C119"/>
+    <mergeCell ref="E117:E119"/>
+    <mergeCell ref="F117:F119"/>
+    <mergeCell ref="B138:B143"/>
+    <mergeCell ref="C138:C143"/>
+    <mergeCell ref="E138:E143"/>
+    <mergeCell ref="F138:F143"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="B130:B134"/>
+    <mergeCell ref="C130:C134"/>
+    <mergeCell ref="E130:E134"/>
+    <mergeCell ref="F130:F134"/>
+    <mergeCell ref="B135:B137"/>
+    <mergeCell ref="C135:C137"/>
+    <mergeCell ref="E135:E137"/>
+    <mergeCell ref="F135:F137"/>
+    <mergeCell ref="B157:B159"/>
+    <mergeCell ref="C157:C159"/>
+    <mergeCell ref="E157:E159"/>
+    <mergeCell ref="F157:F159"/>
+    <mergeCell ref="B160:B162"/>
+    <mergeCell ref="C160:C162"/>
+    <mergeCell ref="E160:E162"/>
+    <mergeCell ref="F160:F162"/>
+    <mergeCell ref="B149:B151"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="E149:E151"/>
+    <mergeCell ref="F149:F151"/>
+    <mergeCell ref="B152:B156"/>
+    <mergeCell ref="C152:C156"/>
+    <mergeCell ref="E152:E156"/>
+    <mergeCell ref="F152:F156"/>
+    <mergeCell ref="E177:E181"/>
+    <mergeCell ref="F177:F181"/>
+    <mergeCell ref="G170:G171"/>
+    <mergeCell ref="C173:C176"/>
+    <mergeCell ref="B173:B176"/>
+    <mergeCell ref="E173:E176"/>
+    <mergeCell ref="F173:F176"/>
+    <mergeCell ref="C163:C166"/>
+    <mergeCell ref="B163:B166"/>
+    <mergeCell ref="F163:F166"/>
+    <mergeCell ref="E163:E166"/>
+    <mergeCell ref="F167:F172"/>
+    <mergeCell ref="E167:E172"/>
+    <mergeCell ref="C167:C172"/>
+    <mergeCell ref="B167:B172"/>
     <mergeCell ref="E191:E194"/>
     <mergeCell ref="C191:C194"/>
     <mergeCell ref="B191:B194"/>
@@ -9113,172 +9735,6 @@
     <mergeCell ref="F182:F187"/>
     <mergeCell ref="C177:C181"/>
     <mergeCell ref="B177:B181"/>
-    <mergeCell ref="E177:E181"/>
-    <mergeCell ref="F177:F181"/>
-    <mergeCell ref="G170:G171"/>
-    <mergeCell ref="C173:C176"/>
-    <mergeCell ref="B173:B176"/>
-    <mergeCell ref="E173:E176"/>
-    <mergeCell ref="F173:F176"/>
-    <mergeCell ref="C163:C166"/>
-    <mergeCell ref="B163:B166"/>
-    <mergeCell ref="F163:F166"/>
-    <mergeCell ref="E163:E166"/>
-    <mergeCell ref="F167:F172"/>
-    <mergeCell ref="E167:E172"/>
-    <mergeCell ref="C167:C172"/>
-    <mergeCell ref="B167:B172"/>
-    <mergeCell ref="B157:B159"/>
-    <mergeCell ref="C157:C159"/>
-    <mergeCell ref="E157:E159"/>
-    <mergeCell ref="F157:F159"/>
-    <mergeCell ref="B160:B162"/>
-    <mergeCell ref="C160:C162"/>
-    <mergeCell ref="E160:E162"/>
-    <mergeCell ref="F160:F162"/>
-    <mergeCell ref="B149:B151"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="E149:E151"/>
-    <mergeCell ref="F149:F151"/>
-    <mergeCell ref="B152:B156"/>
-    <mergeCell ref="C152:C156"/>
-    <mergeCell ref="E152:E156"/>
-    <mergeCell ref="F152:F156"/>
-    <mergeCell ref="B138:B143"/>
-    <mergeCell ref="C138:C143"/>
-    <mergeCell ref="E138:E143"/>
-    <mergeCell ref="F138:F143"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="B130:B134"/>
-    <mergeCell ref="C130:C134"/>
-    <mergeCell ref="E130:E134"/>
-    <mergeCell ref="F130:F134"/>
-    <mergeCell ref="B135:B137"/>
-    <mergeCell ref="C135:C137"/>
-    <mergeCell ref="E135:E137"/>
-    <mergeCell ref="F135:F137"/>
-    <mergeCell ref="B120:B122"/>
-    <mergeCell ref="C120:C122"/>
-    <mergeCell ref="E120:E122"/>
-    <mergeCell ref="F120:F122"/>
-    <mergeCell ref="B123:B129"/>
-    <mergeCell ref="C123:C129"/>
-    <mergeCell ref="E123:E129"/>
-    <mergeCell ref="F123:F129"/>
-    <mergeCell ref="B112:B116"/>
-    <mergeCell ref="C112:C116"/>
-    <mergeCell ref="E112:E116"/>
-    <mergeCell ref="F112:F116"/>
-    <mergeCell ref="B117:B119"/>
-    <mergeCell ref="C117:C119"/>
-    <mergeCell ref="E117:E119"/>
-    <mergeCell ref="F117:F119"/>
-    <mergeCell ref="E106:E108"/>
-    <mergeCell ref="F106:F108"/>
-    <mergeCell ref="C106:C108"/>
-    <mergeCell ref="B106:B108"/>
-    <mergeCell ref="E109:E111"/>
-    <mergeCell ref="F109:F111"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="B109:B111"/>
-    <mergeCell ref="E100:E105"/>
-    <mergeCell ref="F100:F105"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="B100:B105"/>
-    <mergeCell ref="B84:B90"/>
-    <mergeCell ref="C84:C90"/>
-    <mergeCell ref="E84:E90"/>
-    <mergeCell ref="F84:F90"/>
-    <mergeCell ref="B91:B96"/>
-    <mergeCell ref="C91:C96"/>
-    <mergeCell ref="E91:E96"/>
-    <mergeCell ref="F91:F96"/>
-    <mergeCell ref="G84:G85"/>
-    <mergeCell ref="E97:E99"/>
-    <mergeCell ref="F97:F99"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="B97:B99"/>
-    <mergeCell ref="F81:F83"/>
-    <mergeCell ref="C81:C83"/>
-    <mergeCell ref="B81:B83"/>
-    <mergeCell ref="E81:E83"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E75:E80"/>
-    <mergeCell ref="F75:F80"/>
-    <mergeCell ref="C75:C80"/>
-    <mergeCell ref="B75:B80"/>
-    <mergeCell ref="B42:B46"/>
-    <mergeCell ref="C42:C46"/>
-    <mergeCell ref="E42:E46"/>
-    <mergeCell ref="F42:F46"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F20:F22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="E14:E17"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="F14:F17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="E11:E13"/>
-    <mergeCell ref="C8:C10"/>
-    <mergeCell ref="C11:C13"/>
-    <mergeCell ref="F11:F13"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C14:C17"/>
-    <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="B38:B41"/>
-    <mergeCell ref="F38:F41"/>
-    <mergeCell ref="E30:E32"/>
-    <mergeCell ref="C30:C32"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="C25:C27"/>
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="E25:E27"/>
-    <mergeCell ref="F25:F27"/>
-    <mergeCell ref="F55:F60"/>
-    <mergeCell ref="F61:F63"/>
-    <mergeCell ref="E55:E60"/>
-    <mergeCell ref="C55:C60"/>
-    <mergeCell ref="B55:B60"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="B61:B63"/>
-    <mergeCell ref="E61:E63"/>
-    <mergeCell ref="B30:B32"/>
-    <mergeCell ref="F30:F32"/>
-    <mergeCell ref="E52:E54"/>
-    <mergeCell ref="F52:F54"/>
-    <mergeCell ref="C52:C54"/>
-    <mergeCell ref="B52:B54"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="E38:E41"/>
-    <mergeCell ref="C38:C41"/>
-    <mergeCell ref="E64:E66"/>
-    <mergeCell ref="F64:F66"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="C67:C74"/>
-    <mergeCell ref="B67:B74"/>
-    <mergeCell ref="E67:E74"/>
-    <mergeCell ref="F67:F74"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.31496062992125984" bottom="0.27559055118110237" header="0.35433070866141736" footer="0.15748031496062992"/>
